--- a/newData.xlsx
+++ b/newData.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25203"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\SS1\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9496843B-A58A-440C-A407-3A0429F0D721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12EAE7DA-8CD5-4D36-86EF-E36CEF321619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5865" yWindow="-14025" windowWidth="20010" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>Col 1</t>
   </si>
@@ -87,10 +97,10 @@
     <t>m:The number of NP</t>
   </si>
   <si>
-    <t>n: Number of properties/Strategy</t>
+    <t>n: Number of properties each strategy</t>
   </si>
   <si>
-    <t>Row 5: Weight/Property</t>
+    <t>Row 5: Weight per Property</t>
   </si>
   <si>
     <t>W1</t>
@@ -124,9 +134,6 @@
   </si>
   <si>
     <t>...Strategy 2-props n</t>
-  </si>
-  <si>
-    <t>................</t>
   </si>
   <si>
     <t xml:space="preserve">Row 7: Player 2 </t>
@@ -165,14 +172,14 @@
     <t>Strategy pairs: Pairs conflicting to current Strategy</t>
   </si>
   <si>
-    <t>Data:</t>
+    <t>User Input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,14 +223,14 @@
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="20"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8EA9DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -507,15 +520,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -530,7 +535,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -815,15 +844,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CG221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:F11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -832,7 +861,7 @@
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,7 +884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -871,7 +900,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
@@ -889,7 +918,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -907,7 +936,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -923,7 +952,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -941,7 +970,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" s="24" t="s">
         <v>25</v>
       </c>
@@ -966,16 +995,14 @@
       <c r="H7" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>35</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>27</v>
@@ -995,16 +1022,14 @@
       <c r="H8" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>27</v>
@@ -1024,27 +1049,25 @@
       <c r="H9" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="31" t="s">
-        <v>33</v>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="37" t="s">
+        <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="B10" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="35" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="35" t="s">
@@ -1053,86 +1076,232 @@
       <c r="H10" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="31" t="s">
-        <v>33</v>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="39" t="s">
+        <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="C11" s="40"/>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="44"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="C12" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>42</v>
+      <c r="B13" s="41" t="s">
+        <v>41</v>
       </c>
-      <c r="D12" s="45" t="s">
-        <v>42</v>
+      <c r="C13" s="41" t="s">
+        <v>41</v>
       </c>
-      <c r="E12" s="45" t="s">
-        <v>42</v>
+      <c r="D13" s="41" t="s">
+        <v>41</v>
       </c>
-      <c r="F12" s="45" t="s">
-        <v>42</v>
+      <c r="E13" s="41" t="s">
+        <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="F13" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>42</v>
+      <c r="B14" s="41" t="s">
+        <v>41</v>
       </c>
-      <c r="C13" s="45" t="s">
-        <v>42</v>
+      <c r="C14" s="41" t="s">
+        <v>41</v>
       </c>
-      <c r="D13" s="45" t="s">
-        <v>42</v>
+      <c r="D14" s="41" t="s">
+        <v>41</v>
       </c>
-      <c r="E13" s="45" t="s">
-        <v>42</v>
+      <c r="E14" s="41" t="s">
+        <v>41</v>
       </c>
-      <c r="F13" s="45" t="s">
-        <v>42</v>
+      <c r="F14" s="41" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:31" ht="18.75">
+      <c r="A15" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+    </row>
+    <row r="16" spans="1:31" ht="26.25">
+      <c r="A16" s="51" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
-        <v>46</v>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+    </row>
+    <row r="17" spans="1:85">
+      <c r="A17" s="43">
+        <v>1</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B17" s="43">
+        <v>2</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+    </row>
+    <row r="18" spans="1:85">
+      <c r="A18" s="43">
+        <v>24</v>
+      </c>
+      <c r="B18" s="43">
+        <v>6</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+    </row>
+    <row r="19" spans="1:85">
+      <c r="A19" s="44">
+        <v>5</v>
+      </c>
+      <c r="B19" s="44">
+        <v>5386</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+    </row>
+    <row r="20" spans="1:85">
+      <c r="A20" s="45">
+        <v>3</v>
+      </c>
+      <c r="B20" s="45">
+        <v>5</v>
+      </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
@@ -1217,16 +1386,22 @@
       <c r="CF20" s="31"/>
       <c r="CG20" s="31"/>
     </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
-        <v>1</v>
+    <row r="21" spans="1:85">
+      <c r="A21" s="45">
+        <v>11111</v>
       </c>
-      <c r="B21" s="31">
-        <v>2</v>
+      <c r="B21" s="50">
+        <v>22222</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
+      <c r="C21" s="46">
+        <v>33333</v>
+      </c>
+      <c r="D21" s="46">
+        <v>44444</v>
+      </c>
+      <c r="E21" s="46">
+        <v>55555</v>
+      </c>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
@@ -1308,22 +1483,40 @@
       <c r="CF21" s="31"/>
       <c r="CG21" s="31"/>
     </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
-        <v>24</v>
+    <row r="22" spans="1:85">
+      <c r="A22" s="48">
+        <v>2</v>
       </c>
-      <c r="B22" s="31">
-        <v>6</v>
+      <c r="B22" s="47">
+        <v>1062016</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
+      <c r="C22" s="47">
+        <v>31052017</v>
+      </c>
+      <c r="D22" s="47">
+        <v>10720</v>
+      </c>
+      <c r="E22" s="47">
+        <v>12800</v>
+      </c>
+      <c r="F22" s="47">
+        <v>10</v>
+      </c>
+      <c r="G22" s="36">
+        <v>1062016</v>
+      </c>
+      <c r="H22" s="36">
+        <v>31052017</v>
+      </c>
+      <c r="I22" s="36">
+        <v>14800</v>
+      </c>
+      <c r="J22" s="36">
+        <v>17400</v>
+      </c>
+      <c r="K22" s="36">
+        <v>10</v>
+      </c>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
@@ -1399,22 +1592,38 @@
       <c r="CF22" s="31"/>
       <c r="CG22" s="31"/>
     </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
-        <v>5</v>
+    <row r="23" spans="1:85">
+      <c r="A23" s="49">
+        <v>2</v>
       </c>
-      <c r="B23" s="31">
-        <v>5386</v>
+      <c r="B23" s="47">
+        <v>1062016</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
+      <c r="C23" s="47">
+        <v>31052017</v>
+      </c>
+      <c r="D23" s="47">
+        <v>10880</v>
+      </c>
+      <c r="E23" s="47">
+        <v>12960</v>
+      </c>
+      <c r="F23" s="47">
+        <v>9</v>
+      </c>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36">
+        <v>31052017</v>
+      </c>
+      <c r="I23" s="36">
+        <v>1500</v>
+      </c>
+      <c r="J23" s="36">
+        <v>17600</v>
+      </c>
+      <c r="K23" s="36">
+        <v>9</v>
+      </c>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
@@ -1490,22 +1699,40 @@
       <c r="CF23" s="31"/>
       <c r="CG23" s="31"/>
     </row>
-    <row r="24" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
-        <v>3</v>
+    <row r="24" spans="1:85">
+      <c r="A24" s="49">
+        <v>2</v>
       </c>
-      <c r="B24" s="31">
-        <v>5</v>
+      <c r="B24" s="47">
+        <v>1012017</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
+      <c r="C24" s="47">
+        <v>31122017</v>
+      </c>
+      <c r="D24" s="47">
+        <v>11040</v>
+      </c>
+      <c r="E24" s="47">
+        <v>12960</v>
+      </c>
+      <c r="F24" s="47">
+        <v>10</v>
+      </c>
+      <c r="G24" s="36">
+        <v>1012017</v>
+      </c>
+      <c r="H24" s="36">
+        <v>31122017</v>
+      </c>
+      <c r="I24" s="36">
+        <v>15200</v>
+      </c>
+      <c r="J24" s="36">
+        <v>17600</v>
+      </c>
+      <c r="K24" s="36">
+        <v>10</v>
+      </c>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
@@ -1581,48 +1808,7 @@
       <c r="CF24" s="31"/>
       <c r="CG24" s="31"/>
     </row>
-    <row r="25" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
-        <v>11111</v>
-      </c>
-      <c r="B25" s="31">
-        <v>22222</v>
-      </c>
-      <c r="C25" s="31">
-        <v>33333</v>
-      </c>
-      <c r="D25" s="31">
-        <v>44444</v>
-      </c>
-      <c r="E25" s="31">
-        <v>55555</v>
-      </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
+    <row r="25" spans="1:85">
       <c r="AF25" s="31"/>
       <c r="AG25" s="31"/>
       <c r="AH25" s="31"/>
@@ -1678,100 +1864,7 @@
       <c r="CF25" s="31"/>
       <c r="CG25" s="31"/>
     </row>
-    <row r="26" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A26" s="31">
-        <v>6</v>
-      </c>
-      <c r="B26" s="31">
-        <v>1062016</v>
-      </c>
-      <c r="C26" s="31">
-        <v>31052017</v>
-      </c>
-      <c r="D26" s="31">
-        <v>10720</v>
-      </c>
-      <c r="E26" s="31">
-        <v>12800</v>
-      </c>
-      <c r="F26" s="31">
-        <v>10</v>
-      </c>
-      <c r="G26" s="31">
-        <v>1062016</v>
-      </c>
-      <c r="H26" s="31">
-        <v>31052017</v>
-      </c>
-      <c r="I26" s="31">
-        <v>14800</v>
-      </c>
-      <c r="J26" s="31">
-        <v>17400</v>
-      </c>
-      <c r="K26" s="31">
-        <v>10</v>
-      </c>
-      <c r="L26" s="31">
-        <v>1062016</v>
-      </c>
-      <c r="M26" s="31">
-        <v>31052017</v>
-      </c>
-      <c r="N26" s="31">
-        <v>3500</v>
-      </c>
-      <c r="O26" s="31">
-        <v>4180</v>
-      </c>
-      <c r="P26" s="31">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="31">
-        <v>1062016</v>
-      </c>
-      <c r="R26" s="31">
-        <v>31052017</v>
-      </c>
-      <c r="S26" s="31">
-        <v>11400</v>
-      </c>
-      <c r="T26" s="31">
-        <v>13350</v>
-      </c>
-      <c r="U26" s="31">
-        <v>10</v>
-      </c>
-      <c r="V26" s="31">
-        <v>1062016</v>
-      </c>
-      <c r="W26" s="31">
-        <v>31052017</v>
-      </c>
-      <c r="X26" s="31">
-        <v>2880</v>
-      </c>
-      <c r="Y26" s="31">
-        <v>3400</v>
-      </c>
-      <c r="Z26" s="31">
-        <v>10</v>
-      </c>
-      <c r="AA26" s="31">
-        <v>1062016</v>
-      </c>
-      <c r="AB26" s="31">
-        <v>31052017</v>
-      </c>
-      <c r="AC26" s="31">
-        <v>31050</v>
-      </c>
-      <c r="AD26" s="31">
-        <v>36900</v>
-      </c>
-      <c r="AE26" s="31">
-        <v>10</v>
-      </c>
+    <row r="26" spans="1:85">
       <c r="AF26" s="31"/>
       <c r="AG26" s="31"/>
       <c r="AH26" s="31"/>
@@ -1827,100 +1920,7 @@
       <c r="CF26" s="31"/>
       <c r="CG26" s="31"/>
     </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
-        <v>6</v>
-      </c>
-      <c r="B27" s="31">
-        <v>1062016</v>
-      </c>
-      <c r="C27" s="31">
-        <v>31052017</v>
-      </c>
-      <c r="D27" s="31">
-        <v>10880</v>
-      </c>
-      <c r="E27" s="31">
-        <v>12960</v>
-      </c>
-      <c r="F27" s="31">
-        <v>9</v>
-      </c>
-      <c r="G27" s="31">
-        <v>1062016</v>
-      </c>
-      <c r="H27" s="31">
-        <v>31052017</v>
-      </c>
-      <c r="I27" s="31">
-        <v>1500</v>
-      </c>
-      <c r="J27" s="31">
-        <v>17600</v>
-      </c>
-      <c r="K27" s="31">
-        <v>9</v>
-      </c>
-      <c r="L27" s="31">
-        <v>1062016</v>
-      </c>
-      <c r="M27" s="31">
-        <v>31052017</v>
-      </c>
-      <c r="N27" s="31">
-        <v>3550</v>
-      </c>
-      <c r="O27" s="31">
-        <v>4200</v>
-      </c>
-      <c r="P27" s="31">
-        <v>9</v>
-      </c>
-      <c r="Q27" s="31">
-        <v>1062016</v>
-      </c>
-      <c r="R27" s="31">
-        <v>31052017</v>
-      </c>
-      <c r="S27" s="31">
-        <v>11550</v>
-      </c>
-      <c r="T27" s="31">
-        <v>13500</v>
-      </c>
-      <c r="U27" s="31">
-        <v>9</v>
-      </c>
-      <c r="V27" s="31">
-        <v>1062016</v>
-      </c>
-      <c r="W27" s="31">
-        <v>31052017</v>
-      </c>
-      <c r="X27" s="31">
-        <v>2920</v>
-      </c>
-      <c r="Y27" s="31">
-        <v>3440</v>
-      </c>
-      <c r="Z27" s="31">
-        <v>9</v>
-      </c>
-      <c r="AA27" s="31">
-        <v>1062016</v>
-      </c>
-      <c r="AB27" s="31">
-        <v>31052017</v>
-      </c>
-      <c r="AC27" s="31">
-        <v>31500</v>
-      </c>
-      <c r="AD27" s="31">
-        <v>37350</v>
-      </c>
-      <c r="AE27" s="31">
-        <v>9</v>
-      </c>
+    <row r="27" spans="1:85">
       <c r="AF27" s="31"/>
       <c r="AG27" s="31"/>
       <c r="AH27" s="31"/>
@@ -1976,100 +1976,7 @@
       <c r="CF27" s="31"/>
       <c r="CG27" s="31"/>
     </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
-        <v>6</v>
-      </c>
-      <c r="B28" s="31">
-        <v>1012017</v>
-      </c>
-      <c r="C28" s="31">
-        <v>31122017</v>
-      </c>
-      <c r="D28" s="31">
-        <v>11040</v>
-      </c>
-      <c r="E28" s="31">
-        <v>12960</v>
-      </c>
-      <c r="F28" s="31">
-        <v>10</v>
-      </c>
-      <c r="G28" s="31">
-        <v>1012017</v>
-      </c>
-      <c r="H28" s="31">
-        <v>31122017</v>
-      </c>
-      <c r="I28" s="31">
-        <v>15200</v>
-      </c>
-      <c r="J28" s="31">
-        <v>17600</v>
-      </c>
-      <c r="K28" s="31">
-        <v>10</v>
-      </c>
-      <c r="L28" s="31">
-        <v>1012017</v>
-      </c>
-      <c r="M28" s="31">
-        <v>31122017</v>
-      </c>
-      <c r="N28" s="31">
-        <v>3600</v>
-      </c>
-      <c r="O28" s="31">
-        <v>4200</v>
-      </c>
-      <c r="P28" s="31">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="31">
-        <v>1012017</v>
-      </c>
-      <c r="R28" s="31">
-        <v>31122017</v>
-      </c>
-      <c r="S28" s="31">
-        <v>1170</v>
-      </c>
-      <c r="T28" s="31">
-        <v>13500</v>
-      </c>
-      <c r="U28" s="31">
-        <v>10</v>
-      </c>
-      <c r="V28" s="31">
-        <v>1012017</v>
-      </c>
-      <c r="W28" s="31">
-        <v>31122017</v>
-      </c>
-      <c r="X28" s="31">
-        <v>2960</v>
-      </c>
-      <c r="Y28" s="31">
-        <v>3440</v>
-      </c>
-      <c r="Z28" s="31">
-        <v>10</v>
-      </c>
-      <c r="AA28" s="31">
-        <v>1012017</v>
-      </c>
-      <c r="AB28" s="31">
-        <v>31122017</v>
-      </c>
-      <c r="AC28" s="31">
-        <v>31950</v>
-      </c>
-      <c r="AD28" s="31">
-        <v>3600</v>
-      </c>
-      <c r="AE28" s="31">
-        <v>10</v>
-      </c>
+    <row r="28" spans="1:85">
       <c r="AF28" s="31"/>
       <c r="AG28" s="31"/>
       <c r="AH28" s="31"/>
@@ -2125,7 +2032,7 @@
       <c r="CF28" s="31"/>
       <c r="CG28" s="31"/>
     </row>
-    <row r="29" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:85">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -2212,7 +2119,7 @@
       <c r="CF29" s="31"/>
       <c r="CG29" s="31"/>
     </row>
-    <row r="30" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:85">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -2299,7 +2206,7 @@
       <c r="CF30" s="31"/>
       <c r="CG30" s="31"/>
     </row>
-    <row r="31" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:85">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -2386,7 +2293,7 @@
       <c r="CF31" s="31"/>
       <c r="CG31" s="31"/>
     </row>
-    <row r="32" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:85">
       <c r="A32" s="31"/>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -2473,7 +2380,7 @@
       <c r="CF32" s="31"/>
       <c r="CG32" s="31"/>
     </row>
-    <row r="33" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:85">
       <c r="A33" s="31"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -2560,7 +2467,7 @@
       <c r="CF33" s="31"/>
       <c r="CG33" s="31"/>
     </row>
-    <row r="34" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:85">
       <c r="A34" s="31"/>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -2647,7 +2554,7 @@
       <c r="CF34" s="31"/>
       <c r="CG34" s="31"/>
     </row>
-    <row r="35" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:85">
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
@@ -2734,7 +2641,7 @@
       <c r="CF35" s="31"/>
       <c r="CG35" s="31"/>
     </row>
-    <row r="36" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:85">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -2821,7 +2728,7 @@
       <c r="CF36" s="31"/>
       <c r="CG36" s="31"/>
     </row>
-    <row r="37" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:85">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
@@ -2908,7 +2815,7 @@
       <c r="CF37" s="31"/>
       <c r="CG37" s="31"/>
     </row>
-    <row r="38" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:85">
       <c r="A38" s="31"/>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
@@ -2995,7 +2902,7 @@
       <c r="CF38" s="31"/>
       <c r="CG38" s="31"/>
     </row>
-    <row r="39" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:85">
       <c r="A39" s="31"/>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
@@ -3082,7 +2989,7 @@
       <c r="CF39" s="31"/>
       <c r="CG39" s="31"/>
     </row>
-    <row r="40" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:85">
       <c r="A40" s="31"/>
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
@@ -3169,7 +3076,7 @@
       <c r="CF40" s="31"/>
       <c r="CG40" s="31"/>
     </row>
-    <row r="41" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:85">
       <c r="A41" s="31"/>
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
@@ -3256,7 +3163,7 @@
       <c r="CF41" s="31"/>
       <c r="CG41" s="31"/>
     </row>
-    <row r="42" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:85">
       <c r="A42" s="31"/>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
@@ -3343,7 +3250,7 @@
       <c r="CF42" s="31"/>
       <c r="CG42" s="31"/>
     </row>
-    <row r="43" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:85">
       <c r="A43" s="31"/>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
@@ -3430,7 +3337,7 @@
       <c r="CF43" s="31"/>
       <c r="CG43" s="31"/>
     </row>
-    <row r="44" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:85">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
@@ -3517,7 +3424,7 @@
       <c r="CF44" s="31"/>
       <c r="CG44" s="31"/>
     </row>
-    <row r="45" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:85">
       <c r="A45" s="31"/>
       <c r="B45" s="31"/>
       <c r="C45" s="31"/>
@@ -3604,7 +3511,7 @@
       <c r="CF45" s="31"/>
       <c r="CG45" s="31"/>
     </row>
-    <row r="46" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:85">
       <c r="A46" s="31"/>
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
@@ -3691,7 +3598,7 @@
       <c r="CF46" s="31"/>
       <c r="CG46" s="31"/>
     </row>
-    <row r="47" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:85">
       <c r="A47" s="31"/>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
@@ -3778,7 +3685,7 @@
       <c r="CF47" s="31"/>
       <c r="CG47" s="31"/>
     </row>
-    <row r="48" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:85">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
@@ -3865,7 +3772,7 @@
       <c r="CF48" s="31"/>
       <c r="CG48" s="31"/>
     </row>
-    <row r="49" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:85">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
@@ -3952,7 +3859,7 @@
       <c r="CF49" s="31"/>
       <c r="CG49" s="31"/>
     </row>
-    <row r="50" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:85">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
@@ -4039,7 +3946,7 @@
       <c r="CF50" s="31"/>
       <c r="CG50" s="31"/>
     </row>
-    <row r="51" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:85">
       <c r="A51" s="31"/>
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
@@ -4126,7 +4033,7 @@
       <c r="CF51" s="31"/>
       <c r="CG51" s="31"/>
     </row>
-    <row r="52" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:85">
       <c r="A52" s="31"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
@@ -4213,7 +4120,7 @@
       <c r="CF52" s="31"/>
       <c r="CG52" s="31"/>
     </row>
-    <row r="53" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:85">
       <c r="A53" s="31"/>
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
@@ -4300,7 +4207,7 @@
       <c r="CF53" s="31"/>
       <c r="CG53" s="31"/>
     </row>
-    <row r="54" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:85">
       <c r="A54" s="31"/>
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
@@ -4387,7 +4294,7 @@
       <c r="CF54" s="31"/>
       <c r="CG54" s="31"/>
     </row>
-    <row r="55" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:85">
       <c r="A55" s="31"/>
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
@@ -4474,7 +4381,7 @@
       <c r="CF55" s="31"/>
       <c r="CG55" s="31"/>
     </row>
-    <row r="56" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:85">
       <c r="A56" s="31"/>
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
@@ -4561,7 +4468,7 @@
       <c r="CF56" s="31"/>
       <c r="CG56" s="31"/>
     </row>
-    <row r="57" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:85">
       <c r="A57" s="31"/>
       <c r="B57" s="31"/>
       <c r="C57" s="31"/>
@@ -4648,7 +4555,7 @@
       <c r="CF57" s="31"/>
       <c r="CG57" s="31"/>
     </row>
-    <row r="58" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:85">
       <c r="A58" s="31"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31"/>
@@ -4735,7 +4642,7 @@
       <c r="CF58" s="31"/>
       <c r="CG58" s="31"/>
     </row>
-    <row r="59" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:85">
       <c r="A59" s="31"/>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
@@ -4822,7 +4729,7 @@
       <c r="CF59" s="31"/>
       <c r="CG59" s="31"/>
     </row>
-    <row r="60" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:85">
       <c r="A60" s="31"/>
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
@@ -4909,7 +4816,7 @@
       <c r="CF60" s="31"/>
       <c r="CG60" s="31"/>
     </row>
-    <row r="61" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:85">
       <c r="A61" s="31"/>
       <c r="B61" s="31"/>
       <c r="C61" s="31"/>
@@ -4996,7 +4903,7 @@
       <c r="CF61" s="31"/>
       <c r="CG61" s="31"/>
     </row>
-    <row r="62" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:85">
       <c r="A62" s="31"/>
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
@@ -5083,7 +4990,7 @@
       <c r="CF62" s="31"/>
       <c r="CG62" s="31"/>
     </row>
-    <row r="63" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:85">
       <c r="A63" s="31"/>
       <c r="B63" s="31"/>
       <c r="C63" s="31"/>
@@ -5170,7 +5077,7 @@
       <c r="CF63" s="31"/>
       <c r="CG63" s="31"/>
     </row>
-    <row r="64" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:85">
       <c r="A64" s="31"/>
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
@@ -5257,7 +5164,7 @@
       <c r="CF64" s="31"/>
       <c r="CG64" s="31"/>
     </row>
-    <row r="65" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:85">
       <c r="A65" s="31"/>
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
@@ -5344,7 +5251,7 @@
       <c r="CF65" s="31"/>
       <c r="CG65" s="31"/>
     </row>
-    <row r="66" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:85">
       <c r="A66" s="31"/>
       <c r="B66" s="31"/>
       <c r="C66" s="31"/>
@@ -5431,7 +5338,7 @@
       <c r="CF66" s="31"/>
       <c r="CG66" s="31"/>
     </row>
-    <row r="67" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:85">
       <c r="A67" s="31"/>
       <c r="B67" s="31"/>
       <c r="C67" s="31"/>
@@ -5518,7 +5425,7 @@
       <c r="CF67" s="31"/>
       <c r="CG67" s="31"/>
     </row>
-    <row r="68" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:85">
       <c r="A68" s="31"/>
       <c r="B68" s="31"/>
       <c r="C68" s="31"/>
@@ -5605,7 +5512,7 @@
       <c r="CF68" s="31"/>
       <c r="CG68" s="31"/>
     </row>
-    <row r="69" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:85">
       <c r="A69" s="31"/>
       <c r="B69" s="31"/>
       <c r="C69" s="31"/>
@@ -5692,7 +5599,7 @@
       <c r="CF69" s="31"/>
       <c r="CG69" s="31"/>
     </row>
-    <row r="70" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:85">
       <c r="A70" s="31"/>
       <c r="B70" s="31"/>
       <c r="C70" s="31"/>
@@ -5779,7 +5686,7 @@
       <c r="CF70" s="31"/>
       <c r="CG70" s="31"/>
     </row>
-    <row r="71" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:85">
       <c r="A71" s="31"/>
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
@@ -5866,7 +5773,7 @@
       <c r="CF71" s="31"/>
       <c r="CG71" s="31"/>
     </row>
-    <row r="72" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:85">
       <c r="A72" s="31"/>
       <c r="B72" s="31"/>
       <c r="C72" s="31"/>
@@ -5953,7 +5860,7 @@
       <c r="CF72" s="31"/>
       <c r="CG72" s="31"/>
     </row>
-    <row r="73" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:85">
       <c r="A73" s="31"/>
       <c r="B73" s="31"/>
       <c r="C73" s="31"/>
@@ -6040,7 +5947,7 @@
       <c r="CF73" s="31"/>
       <c r="CG73" s="31"/>
     </row>
-    <row r="74" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:85">
       <c r="A74" s="31"/>
       <c r="B74" s="31"/>
       <c r="C74" s="31"/>
@@ -6127,7 +6034,7 @@
       <c r="CF74" s="31"/>
       <c r="CG74" s="31"/>
     </row>
-    <row r="75" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:85">
       <c r="A75" s="31"/>
       <c r="B75" s="31"/>
       <c r="C75" s="31"/>
@@ -6214,7 +6121,7 @@
       <c r="CF75" s="31"/>
       <c r="CG75" s="31"/>
     </row>
-    <row r="76" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:85">
       <c r="A76" s="31"/>
       <c r="B76" s="31"/>
       <c r="C76" s="31"/>
@@ -6301,7 +6208,7 @@
       <c r="CF76" s="31"/>
       <c r="CG76" s="31"/>
     </row>
-    <row r="77" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:85">
       <c r="A77" s="31"/>
       <c r="B77" s="31"/>
       <c r="C77" s="31"/>
@@ -6388,7 +6295,7 @@
       <c r="CF77" s="31"/>
       <c r="CG77" s="31"/>
     </row>
-    <row r="78" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:85">
       <c r="A78" s="31"/>
       <c r="B78" s="31"/>
       <c r="C78" s="31"/>
@@ -6475,7 +6382,7 @@
       <c r="CF78" s="31"/>
       <c r="CG78" s="31"/>
     </row>
-    <row r="79" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:85">
       <c r="A79" s="31"/>
       <c r="B79" s="31"/>
       <c r="C79" s="31"/>
@@ -6562,7 +6469,7 @@
       <c r="CF79" s="31"/>
       <c r="CG79" s="31"/>
     </row>
-    <row r="80" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:85">
       <c r="A80" s="31"/>
       <c r="B80" s="31"/>
       <c r="C80" s="31"/>
@@ -6649,7 +6556,7 @@
       <c r="CF80" s="31"/>
       <c r="CG80" s="31"/>
     </row>
-    <row r="81" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:85">
       <c r="A81" s="31"/>
       <c r="B81" s="31"/>
       <c r="C81" s="31"/>
@@ -6736,7 +6643,7 @@
       <c r="CF81" s="31"/>
       <c r="CG81" s="31"/>
     </row>
-    <row r="82" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:85">
       <c r="A82" s="31"/>
       <c r="B82" s="31"/>
       <c r="C82" s="31"/>
@@ -6823,7 +6730,7 @@
       <c r="CF82" s="31"/>
       <c r="CG82" s="31"/>
     </row>
-    <row r="83" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:85">
       <c r="A83" s="31"/>
       <c r="B83" s="31"/>
       <c r="C83" s="31"/>
@@ -6910,7 +6817,7 @@
       <c r="CF83" s="31"/>
       <c r="CG83" s="31"/>
     </row>
-    <row r="84" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:85">
       <c r="A84" s="31"/>
       <c r="B84" s="31"/>
       <c r="C84" s="31"/>
@@ -6997,7 +6904,7 @@
       <c r="CF84" s="31"/>
       <c r="CG84" s="31"/>
     </row>
-    <row r="85" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:85">
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
       <c r="C85" s="31"/>
@@ -7084,7 +6991,7 @@
       <c r="CF85" s="31"/>
       <c r="CG85" s="31"/>
     </row>
-    <row r="86" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:85">
       <c r="A86" s="31"/>
       <c r="B86" s="31"/>
       <c r="C86" s="31"/>
@@ -7171,7 +7078,7 @@
       <c r="CF86" s="31"/>
       <c r="CG86" s="31"/>
     </row>
-    <row r="87" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:85">
       <c r="A87" s="31"/>
       <c r="B87" s="31"/>
       <c r="C87" s="31"/>
@@ -7258,7 +7165,7 @@
       <c r="CF87" s="31"/>
       <c r="CG87" s="31"/>
     </row>
-    <row r="88" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:85">
       <c r="A88" s="31"/>
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
@@ -7345,7 +7252,7 @@
       <c r="CF88" s="31"/>
       <c r="CG88" s="31"/>
     </row>
-    <row r="89" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:85">
       <c r="A89" s="31"/>
       <c r="B89" s="31"/>
       <c r="C89" s="31"/>
@@ -7432,7 +7339,7 @@
       <c r="CF89" s="31"/>
       <c r="CG89" s="31"/>
     </row>
-    <row r="90" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:85">
       <c r="A90" s="31"/>
       <c r="B90" s="31"/>
       <c r="C90" s="31"/>
@@ -7519,7 +7426,7 @@
       <c r="CF90" s="31"/>
       <c r="CG90" s="31"/>
     </row>
-    <row r="91" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:85">
       <c r="A91" s="31"/>
       <c r="B91" s="31"/>
       <c r="C91" s="31"/>
@@ -7606,7 +7513,7 @@
       <c r="CF91" s="31"/>
       <c r="CG91" s="31"/>
     </row>
-    <row r="92" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:85">
       <c r="A92" s="31"/>
       <c r="B92" s="31"/>
       <c r="C92" s="31"/>
@@ -7693,7 +7600,7 @@
       <c r="CF92" s="31"/>
       <c r="CG92" s="31"/>
     </row>
-    <row r="93" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:85">
       <c r="A93" s="31"/>
       <c r="B93" s="31"/>
       <c r="C93" s="31"/>
@@ -7780,7 +7687,7 @@
       <c r="CF93" s="31"/>
       <c r="CG93" s="31"/>
     </row>
-    <row r="94" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:85">
       <c r="A94" s="31"/>
       <c r="B94" s="31"/>
       <c r="C94" s="31"/>
@@ -7867,7 +7774,7 @@
       <c r="CF94" s="31"/>
       <c r="CG94" s="31"/>
     </row>
-    <row r="95" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:85">
       <c r="A95" s="31"/>
       <c r="B95" s="31"/>
       <c r="C95" s="31"/>
@@ -7954,7 +7861,7 @@
       <c r="CF95" s="31"/>
       <c r="CG95" s="31"/>
     </row>
-    <row r="96" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:85">
       <c r="A96" s="31"/>
       <c r="B96" s="31"/>
       <c r="C96" s="31"/>
@@ -8041,7 +7948,7 @@
       <c r="CF96" s="31"/>
       <c r="CG96" s="31"/>
     </row>
-    <row r="97" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:85">
       <c r="A97" s="31"/>
       <c r="B97" s="31"/>
       <c r="C97" s="31"/>
@@ -8128,7 +8035,7 @@
       <c r="CF97" s="31"/>
       <c r="CG97" s="31"/>
     </row>
-    <row r="98" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:85">
       <c r="A98" s="31"/>
       <c r="B98" s="31"/>
       <c r="C98" s="31"/>
@@ -8215,7 +8122,7 @@
       <c r="CF98" s="31"/>
       <c r="CG98" s="31"/>
     </row>
-    <row r="99" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:85">
       <c r="A99" s="31"/>
       <c r="B99" s="31"/>
       <c r="C99" s="31"/>
@@ -8302,7 +8209,7 @@
       <c r="CF99" s="31"/>
       <c r="CG99" s="31"/>
     </row>
-    <row r="100" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:85">
       <c r="A100" s="31"/>
       <c r="B100" s="31"/>
       <c r="C100" s="31"/>
@@ -8389,7 +8296,7 @@
       <c r="CF100" s="31"/>
       <c r="CG100" s="31"/>
     </row>
-    <row r="101" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:85">
       <c r="A101" s="31"/>
       <c r="B101" s="31"/>
       <c r="C101" s="31"/>
@@ -8476,7 +8383,7 @@
       <c r="CF101" s="31"/>
       <c r="CG101" s="31"/>
     </row>
-    <row r="102" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:85">
       <c r="A102" s="31"/>
       <c r="B102" s="31"/>
       <c r="C102" s="31"/>
@@ -8563,7 +8470,7 @@
       <c r="CF102" s="31"/>
       <c r="CG102" s="31"/>
     </row>
-    <row r="103" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:85">
       <c r="A103" s="31"/>
       <c r="B103" s="31"/>
       <c r="C103" s="31"/>
@@ -8650,7 +8557,7 @@
       <c r="CF103" s="31"/>
       <c r="CG103" s="31"/>
     </row>
-    <row r="104" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:85">
       <c r="A104" s="31"/>
       <c r="B104" s="31"/>
       <c r="C104" s="31"/>
@@ -8737,7 +8644,7 @@
       <c r="CF104" s="31"/>
       <c r="CG104" s="31"/>
     </row>
-    <row r="105" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:85">
       <c r="A105" s="31"/>
       <c r="B105" s="31"/>
       <c r="C105" s="31"/>
@@ -8824,7 +8731,7 @@
       <c r="CF105" s="31"/>
       <c r="CG105" s="31"/>
     </row>
-    <row r="106" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:85">
       <c r="A106" s="31"/>
       <c r="B106" s="31"/>
       <c r="C106" s="31"/>
@@ -8911,7 +8818,7 @@
       <c r="CF106" s="31"/>
       <c r="CG106" s="31"/>
     </row>
-    <row r="107" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:85">
       <c r="A107" s="31"/>
       <c r="B107" s="31"/>
       <c r="C107" s="31"/>
@@ -8998,7 +8905,7 @@
       <c r="CF107" s="31"/>
       <c r="CG107" s="31"/>
     </row>
-    <row r="108" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:85">
       <c r="A108" s="31"/>
       <c r="B108" s="31"/>
       <c r="C108" s="31"/>
@@ -9085,7 +8992,7 @@
       <c r="CF108" s="31"/>
       <c r="CG108" s="31"/>
     </row>
-    <row r="109" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:85">
       <c r="A109" s="31"/>
       <c r="B109" s="31"/>
       <c r="C109" s="31"/>
@@ -9172,7 +9079,7 @@
       <c r="CF109" s="31"/>
       <c r="CG109" s="31"/>
     </row>
-    <row r="110" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:85">
       <c r="A110" s="31"/>
       <c r="B110" s="31"/>
       <c r="C110" s="31"/>
@@ -9259,7 +9166,7 @@
       <c r="CF110" s="31"/>
       <c r="CG110" s="31"/>
     </row>
-    <row r="111" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:85">
       <c r="A111" s="31"/>
       <c r="B111" s="31"/>
       <c r="C111" s="31"/>
@@ -9346,7 +9253,7 @@
       <c r="CF111" s="31"/>
       <c r="CG111" s="31"/>
     </row>
-    <row r="112" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:85">
       <c r="A112" s="31"/>
       <c r="B112" s="31"/>
       <c r="C112" s="31"/>
@@ -9433,7 +9340,7 @@
       <c r="CF112" s="31"/>
       <c r="CG112" s="31"/>
     </row>
-    <row r="113" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:85">
       <c r="A113" s="31"/>
       <c r="B113" s="31"/>
       <c r="C113" s="31"/>
@@ -9520,7 +9427,7 @@
       <c r="CF113" s="31"/>
       <c r="CG113" s="31"/>
     </row>
-    <row r="114" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:85">
       <c r="A114" s="31"/>
       <c r="B114" s="31"/>
       <c r="C114" s="31"/>
@@ -9607,7 +9514,7 @@
       <c r="CF114" s="31"/>
       <c r="CG114" s="31"/>
     </row>
-    <row r="115" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:85">
       <c r="A115" s="31"/>
       <c r="B115" s="31"/>
       <c r="C115" s="31"/>
@@ -9694,7 +9601,7 @@
       <c r="CF115" s="31"/>
       <c r="CG115" s="31"/>
     </row>
-    <row r="116" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:85">
       <c r="A116" s="31"/>
       <c r="B116" s="31"/>
       <c r="C116" s="31"/>
@@ -9781,7 +9688,7 @@
       <c r="CF116" s="31"/>
       <c r="CG116" s="31"/>
     </row>
-    <row r="117" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:85">
       <c r="A117" s="31"/>
       <c r="B117" s="31"/>
       <c r="C117" s="31"/>
@@ -9868,7 +9775,7 @@
       <c r="CF117" s="31"/>
       <c r="CG117" s="31"/>
     </row>
-    <row r="118" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:85">
       <c r="A118" s="31"/>
       <c r="B118" s="31"/>
       <c r="C118" s="31"/>
@@ -9955,7 +9862,7 @@
       <c r="CF118" s="31"/>
       <c r="CG118" s="31"/>
     </row>
-    <row r="119" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:85">
       <c r="A119" s="31"/>
       <c r="B119" s="31"/>
       <c r="C119" s="31"/>
@@ -10042,7 +9949,7 @@
       <c r="CF119" s="31"/>
       <c r="CG119" s="31"/>
     </row>
-    <row r="120" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:85">
       <c r="A120" s="31"/>
       <c r="B120" s="31"/>
       <c r="C120" s="31"/>
@@ -10129,7 +10036,7 @@
       <c r="CF120" s="31"/>
       <c r="CG120" s="31"/>
     </row>
-    <row r="121" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:85">
       <c r="A121" s="31"/>
       <c r="B121" s="31"/>
       <c r="C121" s="31"/>
@@ -10216,7 +10123,7 @@
       <c r="CF121" s="31"/>
       <c r="CG121" s="31"/>
     </row>
-    <row r="122" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:85">
       <c r="A122" s="31"/>
       <c r="B122" s="31"/>
       <c r="C122" s="31"/>
@@ -10303,7 +10210,7 @@
       <c r="CF122" s="31"/>
       <c r="CG122" s="31"/>
     </row>
-    <row r="123" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:85">
       <c r="A123" s="31"/>
       <c r="B123" s="31"/>
       <c r="C123" s="31"/>
@@ -10390,7 +10297,7 @@
       <c r="CF123" s="31"/>
       <c r="CG123" s="31"/>
     </row>
-    <row r="124" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:85">
       <c r="A124" s="31"/>
       <c r="B124" s="31"/>
       <c r="C124" s="31"/>
@@ -10477,7 +10384,7 @@
       <c r="CF124" s="31"/>
       <c r="CG124" s="31"/>
     </row>
-    <row r="125" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:85">
       <c r="A125" s="31"/>
       <c r="B125" s="31"/>
       <c r="C125" s="31"/>
@@ -10564,7 +10471,7 @@
       <c r="CF125" s="31"/>
       <c r="CG125" s="31"/>
     </row>
-    <row r="126" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:85">
       <c r="A126" s="31"/>
       <c r="B126" s="31"/>
       <c r="C126" s="31"/>
@@ -10651,7 +10558,7 @@
       <c r="CF126" s="31"/>
       <c r="CG126" s="31"/>
     </row>
-    <row r="127" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:85">
       <c r="A127" s="31"/>
       <c r="B127" s="31"/>
       <c r="C127" s="31"/>
@@ -10738,7 +10645,7 @@
       <c r="CF127" s="31"/>
       <c r="CG127" s="31"/>
     </row>
-    <row r="128" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:85">
       <c r="A128" s="31"/>
       <c r="B128" s="31"/>
       <c r="C128" s="31"/>
@@ -10825,7 +10732,7 @@
       <c r="CF128" s="31"/>
       <c r="CG128" s="31"/>
     </row>
-    <row r="129" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:85">
       <c r="A129" s="31"/>
       <c r="B129" s="31"/>
       <c r="C129" s="31"/>
@@ -10912,7 +10819,7 @@
       <c r="CF129" s="31"/>
       <c r="CG129" s="31"/>
     </row>
-    <row r="130" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:85">
       <c r="A130" s="31"/>
       <c r="B130" s="31"/>
       <c r="C130" s="31"/>
@@ -10999,7 +10906,7 @@
       <c r="CF130" s="31"/>
       <c r="CG130" s="31"/>
     </row>
-    <row r="131" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:85">
       <c r="A131" s="31"/>
       <c r="B131" s="31"/>
       <c r="C131" s="31"/>
@@ -11086,7 +10993,7 @@
       <c r="CF131" s="31"/>
       <c r="CG131" s="31"/>
     </row>
-    <row r="132" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:85">
       <c r="A132" s="31"/>
       <c r="B132" s="31"/>
       <c r="C132" s="31"/>
@@ -11173,7 +11080,7 @@
       <c r="CF132" s="31"/>
       <c r="CG132" s="31"/>
     </row>
-    <row r="133" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:85">
       <c r="A133" s="31"/>
       <c r="B133" s="31"/>
       <c r="C133" s="31"/>
@@ -11260,7 +11167,7 @@
       <c r="CF133" s="31"/>
       <c r="CG133" s="31"/>
     </row>
-    <row r="134" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:85">
       <c r="A134" s="31"/>
       <c r="B134" s="31"/>
       <c r="C134" s="31"/>
@@ -11347,7 +11254,7 @@
       <c r="CF134" s="31"/>
       <c r="CG134" s="31"/>
     </row>
-    <row r="135" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:85">
       <c r="A135" s="31"/>
       <c r="B135" s="31"/>
       <c r="C135" s="31"/>
@@ -11434,7 +11341,7 @@
       <c r="CF135" s="31"/>
       <c r="CG135" s="31"/>
     </row>
-    <row r="136" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:85">
       <c r="A136" s="31"/>
       <c r="B136" s="31"/>
       <c r="C136" s="31"/>
@@ -11521,7 +11428,7 @@
       <c r="CF136" s="31"/>
       <c r="CG136" s="31"/>
     </row>
-    <row r="137" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:85">
       <c r="A137" s="31"/>
       <c r="B137" s="31"/>
       <c r="C137" s="31"/>
@@ -11608,7 +11515,7 @@
       <c r="CF137" s="31"/>
       <c r="CG137" s="31"/>
     </row>
-    <row r="138" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:85">
       <c r="A138" s="31"/>
       <c r="B138" s="31"/>
       <c r="C138" s="31"/>
@@ -11695,7 +11602,7 @@
       <c r="CF138" s="31"/>
       <c r="CG138" s="31"/>
     </row>
-    <row r="139" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:85">
       <c r="A139" s="31"/>
       <c r="B139" s="31"/>
       <c r="C139" s="31"/>
@@ -11782,7 +11689,7 @@
       <c r="CF139" s="31"/>
       <c r="CG139" s="31"/>
     </row>
-    <row r="140" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:85">
       <c r="A140" s="31"/>
       <c r="B140" s="31"/>
       <c r="C140" s="31"/>
@@ -11869,7 +11776,7 @@
       <c r="CF140" s="31"/>
       <c r="CG140" s="31"/>
     </row>
-    <row r="141" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:85">
       <c r="A141" s="31"/>
       <c r="B141" s="31"/>
       <c r="C141" s="31"/>
@@ -11956,7 +11863,7 @@
       <c r="CF141" s="31"/>
       <c r="CG141" s="31"/>
     </row>
-    <row r="142" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:85">
       <c r="A142" s="31"/>
       <c r="B142" s="31"/>
       <c r="C142" s="31"/>
@@ -12043,7 +11950,7 @@
       <c r="CF142" s="31"/>
       <c r="CG142" s="31"/>
     </row>
-    <row r="143" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:85">
       <c r="A143" s="31"/>
       <c r="B143" s="31"/>
       <c r="C143" s="31"/>
@@ -12130,7 +12037,7 @@
       <c r="CF143" s="31"/>
       <c r="CG143" s="31"/>
     </row>
-    <row r="144" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:85">
       <c r="A144" s="31"/>
       <c r="B144" s="31"/>
       <c r="C144" s="31"/>
@@ -12217,7 +12124,7 @@
       <c r="CF144" s="31"/>
       <c r="CG144" s="31"/>
     </row>
-    <row r="145" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:85">
       <c r="A145" s="31"/>
       <c r="B145" s="31"/>
       <c r="C145" s="31"/>
@@ -12304,7 +12211,7 @@
       <c r="CF145" s="31"/>
       <c r="CG145" s="31"/>
     </row>
-    <row r="146" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:85">
       <c r="A146" s="31"/>
       <c r="B146" s="31"/>
       <c r="C146" s="31"/>
@@ -12391,7 +12298,7 @@
       <c r="CF146" s="31"/>
       <c r="CG146" s="31"/>
     </row>
-    <row r="147" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:85">
       <c r="A147" s="31"/>
       <c r="B147" s="31"/>
       <c r="C147" s="31"/>
@@ -12478,7 +12385,7 @@
       <c r="CF147" s="31"/>
       <c r="CG147" s="31"/>
     </row>
-    <row r="148" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:85">
       <c r="A148" s="31"/>
       <c r="B148" s="31"/>
       <c r="C148" s="31"/>
@@ -12565,7 +12472,7 @@
       <c r="CF148" s="31"/>
       <c r="CG148" s="31"/>
     </row>
-    <row r="149" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:85">
       <c r="A149" s="31"/>
       <c r="B149" s="31"/>
       <c r="C149" s="31"/>
@@ -12652,7 +12559,7 @@
       <c r="CF149" s="31"/>
       <c r="CG149" s="31"/>
     </row>
-    <row r="150" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:85">
       <c r="A150" s="31"/>
       <c r="B150" s="31"/>
       <c r="C150" s="31"/>
@@ -12739,7 +12646,7 @@
       <c r="CF150" s="31"/>
       <c r="CG150" s="31"/>
     </row>
-    <row r="151" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:85">
       <c r="A151" s="31"/>
       <c r="B151" s="31"/>
       <c r="C151" s="31"/>
@@ -12826,7 +12733,7 @@
       <c r="CF151" s="31"/>
       <c r="CG151" s="31"/>
     </row>
-    <row r="152" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:85">
       <c r="A152" s="31"/>
       <c r="B152" s="31"/>
       <c r="C152" s="31"/>
@@ -12913,7 +12820,7 @@
       <c r="CF152" s="31"/>
       <c r="CG152" s="31"/>
     </row>
-    <row r="153" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:85">
       <c r="A153" s="31"/>
       <c r="B153" s="31"/>
       <c r="C153" s="31"/>
@@ -13000,7 +12907,7 @@
       <c r="CF153" s="31"/>
       <c r="CG153" s="31"/>
     </row>
-    <row r="154" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:85">
       <c r="A154" s="31"/>
       <c r="B154" s="31"/>
       <c r="C154" s="31"/>
@@ -13087,7 +12994,7 @@
       <c r="CF154" s="31"/>
       <c r="CG154" s="31"/>
     </row>
-    <row r="155" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:85">
       <c r="A155" s="31"/>
       <c r="B155" s="31"/>
       <c r="C155" s="31"/>
@@ -13174,7 +13081,7 @@
       <c r="CF155" s="31"/>
       <c r="CG155" s="31"/>
     </row>
-    <row r="156" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:85">
       <c r="A156" s="31"/>
       <c r="B156" s="31"/>
       <c r="C156" s="31"/>
@@ -13261,7 +13168,7 @@
       <c r="CF156" s="31"/>
       <c r="CG156" s="31"/>
     </row>
-    <row r="157" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:85">
       <c r="A157" s="31"/>
       <c r="B157" s="31"/>
       <c r="C157" s="31"/>
@@ -13348,7 +13255,7 @@
       <c r="CF157" s="31"/>
       <c r="CG157" s="31"/>
     </row>
-    <row r="158" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:85">
       <c r="A158" s="31"/>
       <c r="B158" s="31"/>
       <c r="C158" s="31"/>
@@ -13435,7 +13342,7 @@
       <c r="CF158" s="31"/>
       <c r="CG158" s="31"/>
     </row>
-    <row r="159" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:85">
       <c r="A159" s="31"/>
       <c r="B159" s="31"/>
       <c r="C159" s="31"/>
@@ -13522,7 +13429,7 @@
       <c r="CF159" s="31"/>
       <c r="CG159" s="31"/>
     </row>
-    <row r="160" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:85">
       <c r="A160" s="31"/>
       <c r="B160" s="31"/>
       <c r="C160" s="31"/>
@@ -13609,7 +13516,7 @@
       <c r="CF160" s="31"/>
       <c r="CG160" s="31"/>
     </row>
-    <row r="161" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:85">
       <c r="A161" s="31"/>
       <c r="B161" s="31"/>
       <c r="C161" s="31"/>
@@ -13696,7 +13603,7 @@
       <c r="CF161" s="31"/>
       <c r="CG161" s="31"/>
     </row>
-    <row r="162" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:85">
       <c r="A162" s="31"/>
       <c r="B162" s="31"/>
       <c r="C162" s="31"/>
@@ -13783,7 +13690,7 @@
       <c r="CF162" s="31"/>
       <c r="CG162" s="31"/>
     </row>
-    <row r="163" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:85">
       <c r="A163" s="31"/>
       <c r="B163" s="31"/>
       <c r="C163" s="31"/>
@@ -13870,7 +13777,7 @@
       <c r="CF163" s="31"/>
       <c r="CG163" s="31"/>
     </row>
-    <row r="164" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:85">
       <c r="A164" s="31"/>
       <c r="B164" s="31"/>
       <c r="C164" s="31"/>
@@ -13957,7 +13864,7 @@
       <c r="CF164" s="31"/>
       <c r="CG164" s="31"/>
     </row>
-    <row r="165" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:85">
       <c r="A165" s="31"/>
       <c r="B165" s="31"/>
       <c r="C165" s="31"/>
@@ -14044,7 +13951,7 @@
       <c r="CF165" s="31"/>
       <c r="CG165" s="31"/>
     </row>
-    <row r="166" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:85">
       <c r="A166" s="31"/>
       <c r="B166" s="31"/>
       <c r="C166" s="31"/>
@@ -14131,7 +14038,7 @@
       <c r="CF166" s="31"/>
       <c r="CG166" s="31"/>
     </row>
-    <row r="167" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:85">
       <c r="A167" s="31"/>
       <c r="B167" s="31"/>
       <c r="C167" s="31"/>
@@ -14218,7 +14125,7 @@
       <c r="CF167" s="31"/>
       <c r="CG167" s="31"/>
     </row>
-    <row r="168" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:85">
       <c r="A168" s="31"/>
       <c r="B168" s="31"/>
       <c r="C168" s="31"/>
@@ -14305,7 +14212,7 @@
       <c r="CF168" s="31"/>
       <c r="CG168" s="31"/>
     </row>
-    <row r="169" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:85">
       <c r="A169" s="31"/>
       <c r="B169" s="31"/>
       <c r="C169" s="31"/>
@@ -14392,7 +14299,7 @@
       <c r="CF169" s="31"/>
       <c r="CG169" s="31"/>
     </row>
-    <row r="170" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:85">
       <c r="A170" s="31"/>
       <c r="B170" s="31"/>
       <c r="C170" s="31"/>
@@ -14479,7 +14386,7 @@
       <c r="CF170" s="31"/>
       <c r="CG170" s="31"/>
     </row>
-    <row r="171" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:85">
       <c r="A171" s="31"/>
       <c r="B171" s="31"/>
       <c r="C171" s="31"/>
@@ -14566,7 +14473,7 @@
       <c r="CF171" s="31"/>
       <c r="CG171" s="31"/>
     </row>
-    <row r="172" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:85">
       <c r="A172" s="31"/>
       <c r="B172" s="31"/>
       <c r="C172" s="31"/>
@@ -14653,7 +14560,7 @@
       <c r="CF172" s="31"/>
       <c r="CG172" s="31"/>
     </row>
-    <row r="173" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:85">
       <c r="A173" s="31"/>
       <c r="B173" s="31"/>
       <c r="C173" s="31"/>
@@ -14740,7 +14647,7 @@
       <c r="CF173" s="31"/>
       <c r="CG173" s="31"/>
     </row>
-    <row r="174" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:85">
       <c r="A174" s="31"/>
       <c r="B174" s="31"/>
       <c r="C174" s="31"/>
@@ -14827,7 +14734,7 @@
       <c r="CF174" s="31"/>
       <c r="CG174" s="31"/>
     </row>
-    <row r="175" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:85">
       <c r="A175" s="31"/>
       <c r="B175" s="31"/>
       <c r="C175" s="31"/>
@@ -14914,7 +14821,7 @@
       <c r="CF175" s="31"/>
       <c r="CG175" s="31"/>
     </row>
-    <row r="176" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:85">
       <c r="A176" s="31"/>
       <c r="B176" s="31"/>
       <c r="C176" s="31"/>
@@ -15001,7 +14908,7 @@
       <c r="CF176" s="31"/>
       <c r="CG176" s="31"/>
     </row>
-    <row r="177" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:85">
       <c r="A177" s="31"/>
       <c r="B177" s="31"/>
       <c r="C177" s="31"/>
@@ -15088,7 +14995,7 @@
       <c r="CF177" s="31"/>
       <c r="CG177" s="31"/>
     </row>
-    <row r="178" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:85">
       <c r="A178" s="31"/>
       <c r="B178" s="31"/>
       <c r="C178" s="31"/>
@@ -15175,7 +15082,7 @@
       <c r="CF178" s="31"/>
       <c r="CG178" s="31"/>
     </row>
-    <row r="179" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:85">
       <c r="A179" s="31"/>
       <c r="B179" s="31"/>
       <c r="C179" s="31"/>
@@ -15262,7 +15169,7 @@
       <c r="CF179" s="31"/>
       <c r="CG179" s="31"/>
     </row>
-    <row r="180" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:85">
       <c r="A180" s="31"/>
       <c r="B180" s="31"/>
       <c r="C180" s="31"/>
@@ -15349,7 +15256,7 @@
       <c r="CF180" s="31"/>
       <c r="CG180" s="31"/>
     </row>
-    <row r="181" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:85">
       <c r="A181" s="31"/>
       <c r="B181" s="31"/>
       <c r="C181" s="31"/>
@@ -15436,7 +15343,7 @@
       <c r="CF181" s="31"/>
       <c r="CG181" s="31"/>
     </row>
-    <row r="182" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:85">
       <c r="A182" s="31"/>
       <c r="B182" s="31"/>
       <c r="C182" s="31"/>
@@ -15523,7 +15430,7 @@
       <c r="CF182" s="31"/>
       <c r="CG182" s="31"/>
     </row>
-    <row r="183" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:85">
       <c r="A183" s="31"/>
       <c r="B183" s="31"/>
       <c r="C183" s="31"/>
@@ -15610,7 +15517,7 @@
       <c r="CF183" s="31"/>
       <c r="CG183" s="31"/>
     </row>
-    <row r="184" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:85">
       <c r="A184" s="31"/>
       <c r="B184" s="31"/>
       <c r="C184" s="31"/>
@@ -15697,7 +15604,7 @@
       <c r="CF184" s="31"/>
       <c r="CG184" s="31"/>
     </row>
-    <row r="185" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:85">
       <c r="A185" s="31"/>
       <c r="B185" s="31"/>
       <c r="C185" s="31"/>
@@ -15784,7 +15691,7 @@
       <c r="CF185" s="31"/>
       <c r="CG185" s="31"/>
     </row>
-    <row r="186" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:85">
       <c r="A186" s="31"/>
       <c r="B186" s="31"/>
       <c r="C186" s="31"/>
@@ -15871,7 +15778,7 @@
       <c r="CF186" s="31"/>
       <c r="CG186" s="31"/>
     </row>
-    <row r="187" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:85">
       <c r="A187" s="31"/>
       <c r="B187" s="31"/>
       <c r="C187" s="31"/>
@@ -15958,7 +15865,7 @@
       <c r="CF187" s="31"/>
       <c r="CG187" s="31"/>
     </row>
-    <row r="188" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:85">
       <c r="A188" s="31"/>
       <c r="B188" s="31"/>
       <c r="C188" s="31"/>
@@ -16045,7 +15952,7 @@
       <c r="CF188" s="31"/>
       <c r="CG188" s="31"/>
     </row>
-    <row r="189" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:85">
       <c r="A189" s="31"/>
       <c r="B189" s="31"/>
       <c r="C189" s="31"/>
@@ -16132,7 +16039,7 @@
       <c r="CF189" s="31"/>
       <c r="CG189" s="31"/>
     </row>
-    <row r="190" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:85">
       <c r="A190" s="31"/>
       <c r="B190" s="31"/>
       <c r="C190" s="31"/>
@@ -16219,7 +16126,7 @@
       <c r="CF190" s="31"/>
       <c r="CG190" s="31"/>
     </row>
-    <row r="191" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:85">
       <c r="A191" s="31"/>
       <c r="B191" s="31"/>
       <c r="C191" s="31"/>
@@ -16306,7 +16213,7 @@
       <c r="CF191" s="31"/>
       <c r="CG191" s="31"/>
     </row>
-    <row r="192" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:85">
       <c r="A192" s="31"/>
       <c r="B192" s="31"/>
       <c r="C192" s="31"/>
@@ -16393,7 +16300,7 @@
       <c r="CF192" s="31"/>
       <c r="CG192" s="31"/>
     </row>
-    <row r="193" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:85">
       <c r="A193" s="31"/>
       <c r="B193" s="31"/>
       <c r="C193" s="31"/>
@@ -16480,7 +16387,7 @@
       <c r="CF193" s="31"/>
       <c r="CG193" s="31"/>
     </row>
-    <row r="194" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:85">
       <c r="A194" s="31"/>
       <c r="B194" s="31"/>
       <c r="C194" s="31"/>
@@ -16567,7 +16474,7 @@
       <c r="CF194" s="31"/>
       <c r="CG194" s="31"/>
     </row>
-    <row r="195" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:85">
       <c r="A195" s="31"/>
       <c r="B195" s="31"/>
       <c r="C195" s="31"/>
@@ -16654,7 +16561,7 @@
       <c r="CF195" s="31"/>
       <c r="CG195" s="31"/>
     </row>
-    <row r="196" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:85">
       <c r="A196" s="31"/>
       <c r="B196" s="31"/>
       <c r="C196" s="31"/>
@@ -16741,7 +16648,7 @@
       <c r="CF196" s="31"/>
       <c r="CG196" s="31"/>
     </row>
-    <row r="197" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:85">
       <c r="A197" s="31"/>
       <c r="B197" s="31"/>
       <c r="C197" s="31"/>
@@ -16828,7 +16735,7 @@
       <c r="CF197" s="31"/>
       <c r="CG197" s="31"/>
     </row>
-    <row r="198" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:85">
       <c r="A198" s="31"/>
       <c r="B198" s="31"/>
       <c r="C198" s="31"/>
@@ -16915,7 +16822,7 @@
       <c r="CF198" s="31"/>
       <c r="CG198" s="31"/>
     </row>
-    <row r="199" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:85">
       <c r="A199" s="31"/>
       <c r="B199" s="31"/>
       <c r="C199" s="31"/>
@@ -17002,7 +16909,7 @@
       <c r="CF199" s="31"/>
       <c r="CG199" s="31"/>
     </row>
-    <row r="200" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:85">
       <c r="A200" s="31"/>
       <c r="B200" s="31"/>
       <c r="C200" s="31"/>
@@ -17089,7 +16996,7 @@
       <c r="CF200" s="31"/>
       <c r="CG200" s="31"/>
     </row>
-    <row r="201" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:85">
       <c r="A201" s="31"/>
       <c r="B201" s="31"/>
       <c r="C201" s="31"/>
@@ -17176,7 +17083,7 @@
       <c r="CF201" s="31"/>
       <c r="CG201" s="31"/>
     </row>
-    <row r="202" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:85">
       <c r="A202" s="31"/>
       <c r="B202" s="31"/>
       <c r="C202" s="31"/>
@@ -17263,7 +17170,7 @@
       <c r="CF202" s="31"/>
       <c r="CG202" s="31"/>
     </row>
-    <row r="203" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:85">
       <c r="A203" s="31"/>
       <c r="B203" s="31"/>
       <c r="C203" s="31"/>
@@ -17350,7 +17257,7 @@
       <c r="CF203" s="31"/>
       <c r="CG203" s="31"/>
     </row>
-    <row r="204" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:85">
       <c r="A204" s="31"/>
       <c r="B204" s="31"/>
       <c r="C204" s="31"/>
@@ -17437,7 +17344,7 @@
       <c r="CF204" s="31"/>
       <c r="CG204" s="31"/>
     </row>
-    <row r="205" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:85">
       <c r="A205" s="31"/>
       <c r="B205" s="31"/>
       <c r="C205" s="31"/>
@@ -17524,7 +17431,7 @@
       <c r="CF205" s="31"/>
       <c r="CG205" s="31"/>
     </row>
-    <row r="206" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:85">
       <c r="A206" s="31"/>
       <c r="B206" s="31"/>
       <c r="C206" s="31"/>
@@ -17611,7 +17518,7 @@
       <c r="CF206" s="31"/>
       <c r="CG206" s="31"/>
     </row>
-    <row r="207" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:85">
       <c r="A207" s="31"/>
       <c r="B207" s="31"/>
       <c r="C207" s="31"/>
@@ -17698,7 +17605,7 @@
       <c r="CF207" s="31"/>
       <c r="CG207" s="31"/>
     </row>
-    <row r="208" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:85">
       <c r="A208" s="31"/>
       <c r="B208" s="31"/>
       <c r="C208" s="31"/>
@@ -17785,7 +17692,7 @@
       <c r="CF208" s="31"/>
       <c r="CG208" s="31"/>
     </row>
-    <row r="209" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:85">
       <c r="A209" s="31"/>
       <c r="B209" s="31"/>
       <c r="C209" s="31"/>
@@ -17872,7 +17779,7 @@
       <c r="CF209" s="31"/>
       <c r="CG209" s="31"/>
     </row>
-    <row r="210" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:85">
       <c r="A210" s="31"/>
       <c r="B210" s="31"/>
       <c r="C210" s="31"/>
@@ -17959,7 +17866,7 @@
       <c r="CF210" s="31"/>
       <c r="CG210" s="31"/>
     </row>
-    <row r="211" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:85">
       <c r="A211" s="31"/>
       <c r="B211" s="31"/>
       <c r="C211" s="31"/>
@@ -18046,7 +17953,7 @@
       <c r="CF211" s="31"/>
       <c r="CG211" s="31"/>
     </row>
-    <row r="212" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:85">
       <c r="A212" s="31"/>
       <c r="B212" s="31"/>
       <c r="C212" s="31"/>
@@ -18133,7 +18040,7 @@
       <c r="CF212" s="31"/>
       <c r="CG212" s="31"/>
     </row>
-    <row r="213" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:85">
       <c r="A213" s="31"/>
       <c r="B213" s="31"/>
       <c r="C213" s="31"/>
@@ -18220,7 +18127,7 @@
       <c r="CF213" s="31"/>
       <c r="CG213" s="31"/>
     </row>
-    <row r="214" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:85">
       <c r="A214" s="31"/>
       <c r="B214" s="31"/>
       <c r="C214" s="31"/>
@@ -18307,7 +18214,7 @@
       <c r="CF214" s="31"/>
       <c r="CG214" s="31"/>
     </row>
-    <row r="215" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:85">
       <c r="A215" s="31"/>
       <c r="B215" s="31"/>
       <c r="C215" s="31"/>
@@ -18394,7 +18301,7 @@
       <c r="CF215" s="31"/>
       <c r="CG215" s="31"/>
     </row>
-    <row r="216" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:85">
       <c r="A216" s="31"/>
       <c r="B216" s="31"/>
       <c r="C216" s="31"/>
@@ -18481,7 +18388,7 @@
       <c r="CF216" s="31"/>
       <c r="CG216" s="31"/>
     </row>
-    <row r="217" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:85">
       <c r="A217" s="31"/>
       <c r="B217" s="31"/>
       <c r="C217" s="31"/>
@@ -18568,7 +18475,7 @@
       <c r="CF217" s="31"/>
       <c r="CG217" s="31"/>
     </row>
-    <row r="218" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:85">
       <c r="A218" s="31"/>
       <c r="B218" s="31"/>
       <c r="C218" s="31"/>
@@ -18655,7 +18562,7 @@
       <c r="CF218" s="31"/>
       <c r="CG218" s="31"/>
     </row>
-    <row r="219" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:85">
       <c r="A219" s="31"/>
       <c r="B219" s="31"/>
       <c r="C219" s="31"/>
@@ -18742,7 +18649,7 @@
       <c r="CF219" s="31"/>
       <c r="CG219" s="31"/>
     </row>
-    <row r="220" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:85">
       <c r="A220" s="31"/>
       <c r="B220" s="31"/>
       <c r="C220" s="31"/>
@@ -18829,7 +18736,7 @@
       <c r="CF220" s="31"/>
       <c r="CG220" s="31"/>
     </row>
-    <row r="221" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:85">
       <c r="A221" s="31"/>
       <c r="B221" s="31"/>
       <c r="C221" s="31"/>

--- a/newData.xlsx
+++ b/newData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\SS1\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12EAE7DA-8CD5-4D36-86EF-E36CEF321619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5412FAF9-74AD-4D4D-8E54-EFCD5213B426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5865" yWindow="-14025" windowWidth="20010" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>Col 1</t>
   </si>
@@ -160,6 +160,9 @@
     <t>Row i+1: Player 1</t>
   </si>
   <si>
+    <t>Strategy Pairs*: PlayerNo, StratNo, PLayerNo Strat No</t>
+  </si>
+  <si>
     <t>Strategy Pairs*</t>
   </si>
   <si>
@@ -173,6 +176,12 @@
   </si>
   <si>
     <t>User Input</t>
+  </si>
+  <si>
+    <t>1,2,2,1</t>
+  </si>
+  <si>
+    <t>3,1,1,2</t>
   </si>
 </sst>
 </file>
@@ -845,14 +854,14 @@
   <dimension ref="A1:CG221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -1092,66 +1101,66 @@
         <v>41</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>41</v>
-      </c>
       <c r="C13" s="41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="18.75">
       <c r="A15" s="42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="26.25">
       <c r="A16" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -1809,6 +1818,12 @@
       <c r="CG24" s="31"/>
     </row>
     <row r="25" spans="1:85">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
       <c r="AF25" s="31"/>
       <c r="AG25" s="31"/>
       <c r="AH25" s="31"/>

--- a/newData.xlsx
+++ b/newData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\SS1\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5412FAF9-74AD-4D4D-8E54-EFCD5213B426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BB240E7-FC45-4B91-A403-0DA49A735686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5865" yWindow="-14025" windowWidth="20010" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>Col 1</t>
   </si>
@@ -178,17 +178,23 @@
     <t>User Input</t>
   </si>
   <si>
-    <t>1,2,2,1</t>
+    <t>0.622</t>
   </si>
   <si>
-    <t>3,1,1,2</t>
+    <t>0.1266</t>
+  </si>
+  <si>
+    <t>0.138983</t>
+  </si>
+  <si>
+    <t>0.172666</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,8 +244,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +297,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -559,16 +583,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -853,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CG221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1159,7 +1198,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" ht="26.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="49" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="31"/>
@@ -1195,10 +1234,10 @@
     </row>
     <row r="17" spans="1:85">
       <c r="A17" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
@@ -1232,10 +1271,10 @@
     </row>
     <row r="18" spans="1:85">
       <c r="A18" s="43">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B18" s="43">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -1269,10 +1308,10 @@
     </row>
     <row r="19" spans="1:85">
       <c r="A19" s="44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B19" s="44">
-        <v>5386</v>
+        <v>0</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
@@ -1306,10 +1345,10 @@
     </row>
     <row r="20" spans="1:85">
       <c r="A20" s="45">
-        <v>3</v>
+        <v>1</v>
       </c>
-      <c r="B20" s="45">
-        <v>5</v>
+      <c r="B20" s="46">
+        <v>2</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -1396,21 +1435,15 @@
       <c r="CG20" s="31"/>
     </row>
     <row r="21" spans="1:85">
-      <c r="A21" s="45">
-        <v>11111</v>
+      <c r="A21" s="48">
+        <v>1</v>
       </c>
-      <c r="B21" s="50">
-        <v>22222</v>
+      <c r="B21" s="46" t="s">
+        <v>47</v>
       </c>
-      <c r="C21" s="46">
-        <v>33333</v>
-      </c>
-      <c r="D21" s="46">
-        <v>44444</v>
-      </c>
-      <c r="E21" s="46">
-        <v>55555</v>
-      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
@@ -1493,39 +1526,31 @@
       <c r="CG21" s="31"/>
     </row>
     <row r="22" spans="1:85">
-      <c r="A22" s="48">
-        <v>2</v>
+      <c r="A22" s="53">
+        <v>3</v>
       </c>
-      <c r="B22" s="47">
-        <v>1062016</v>
+      <c r="B22" s="54" t="s">
+        <v>48</v>
       </c>
       <c r="C22" s="47">
-        <v>31052017</v>
+        <v>1600</v>
       </c>
-      <c r="D22" s="47">
-        <v>10720</v>
+      <c r="D22" s="55" t="s">
+        <v>49</v>
       </c>
-      <c r="E22" s="47">
-        <v>12800</v>
+      <c r="E22" s="51">
+        <v>1680</v>
       </c>
-      <c r="F22" s="47">
-        <v>10</v>
+      <c r="F22" s="56" t="s">
+        <v>50</v>
       </c>
-      <c r="G22" s="36">
-        <v>1062016</v>
+      <c r="G22" s="52">
+        <v>1714</v>
       </c>
-      <c r="H22" s="36">
-        <v>31052017</v>
-      </c>
-      <c r="I22" s="36">
-        <v>14800</v>
-      </c>
-      <c r="J22" s="36">
-        <v>17400</v>
-      </c>
-      <c r="K22" s="36">
-        <v>10</v>
-      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
@@ -1602,37 +1627,17 @@
       <c r="CG22" s="31"/>
     </row>
     <row r="23" spans="1:85">
-      <c r="A23" s="49">
-        <v>2</v>
-      </c>
-      <c r="B23" s="47">
-        <v>1062016</v>
-      </c>
-      <c r="C23" s="47">
-        <v>31052017</v>
-      </c>
-      <c r="D23" s="47">
-        <v>10880</v>
-      </c>
-      <c r="E23" s="47">
-        <v>12960</v>
-      </c>
-      <c r="F23" s="47">
-        <v>9</v>
-      </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36">
-        <v>31052017</v>
-      </c>
-      <c r="I23" s="36">
-        <v>1500</v>
-      </c>
-      <c r="J23" s="36">
-        <v>17600</v>
-      </c>
-      <c r="K23" s="36">
-        <v>9</v>
-      </c>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
@@ -1709,39 +1714,17 @@
       <c r="CG23" s="31"/>
     </row>
     <row r="24" spans="1:85">
-      <c r="A24" s="49">
-        <v>2</v>
-      </c>
-      <c r="B24" s="47">
-        <v>1012017</v>
-      </c>
-      <c r="C24" s="47">
-        <v>31122017</v>
-      </c>
-      <c r="D24" s="47">
-        <v>11040</v>
-      </c>
-      <c r="E24" s="47">
-        <v>12960</v>
-      </c>
-      <c r="F24" s="47">
-        <v>10</v>
-      </c>
-      <c r="G24" s="36">
-        <v>1012017</v>
-      </c>
-      <c r="H24" s="36">
-        <v>31122017</v>
-      </c>
-      <c r="I24" s="36">
-        <v>15200</v>
-      </c>
-      <c r="J24" s="36">
-        <v>17600</v>
-      </c>
-      <c r="K24" s="36">
-        <v>10</v>
-      </c>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
@@ -1817,13 +1800,9 @@
       <c r="CF24" s="31"/>
       <c r="CG24" s="31"/>
     </row>
-    <row r="25" spans="1:85">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
+    <row r="25" spans="1:85" ht="21" customHeight="1">
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
       <c r="AF25" s="31"/>
       <c r="AG25" s="31"/>
       <c r="AH25" s="31"/>

--- a/newData.xlsx
+++ b/newData.xlsx
@@ -1,257 +1,262 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25227"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\SS1\src\main\java\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BB240E7-FC45-4B91-A403-0DA49A735686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="-14025" windowWidth="20010" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
-    <t>Col 1</t>
+    <t xml:space="preserve">Col 1</t>
   </si>
   <si>
-    <t>Col 2</t>
+    <t xml:space="preserve">Col 2</t>
   </si>
   <si>
-    <t>Col 3</t>
+    <t xml:space="preserve">Col 3</t>
   </si>
   <si>
-    <t>Col 4</t>
+    <t xml:space="preserve">Col 4</t>
   </si>
   <si>
-    <t>Col 5</t>
+    <t xml:space="preserve">Col 5</t>
   </si>
   <si>
-    <t>Col 6</t>
+    <t xml:space="preserve">Col 6</t>
   </si>
   <si>
-    <t>Col 7</t>
+    <t xml:space="preserve">Col 7</t>
   </si>
   <si>
-    <t>Row 1: SpecialPlayer(SP)</t>
+    <t xml:space="preserve">Row 1: SpecialPlayer(SP)</t>
   </si>
   <si>
     <t xml:space="preserve"> Existing SP? 0(No) || 1(Yes)</t>
   </si>
   <si>
-    <t>n*: Number of Properties</t>
+    <t xml:space="preserve">n*: Number of Properties</t>
   </si>
   <si>
-    <t>Row 2: Properties(P*)</t>
+    <t xml:space="preserve">Row 2: Properties(P*)</t>
   </si>
   <si>
-    <t>P1*</t>
+    <t xml:space="preserve">P1*</t>
   </si>
   <si>
-    <t>P2*...</t>
+    <t xml:space="preserve">P2*...</t>
   </si>
   <si>
-    <t>...Pn*</t>
+    <t xml:space="preserve">...Pn*</t>
   </si>
   <si>
-    <t>Row 3: Weight(W*)</t>
+    <t xml:space="preserve">Row 3: Weight(W*)</t>
   </si>
   <si>
-    <t>W1*</t>
+    <t xml:space="preserve">W1*</t>
   </si>
   <si>
-    <t>W2*...</t>
+    <t xml:space="preserve">W2*...</t>
   </si>
   <si>
-    <t>...Wn*</t>
+    <t xml:space="preserve">...Wn*</t>
   </si>
   <si>
     <t xml:space="preserve">Row 4: NormalPlayer(NP) </t>
   </si>
   <si>
-    <t>m:The number of NP</t>
+    <t xml:space="preserve">m:The number of NP</t>
   </si>
   <si>
-    <t>n: Number of properties each strategy</t>
+    <t xml:space="preserve">n: Number of properties each strategy</t>
   </si>
   <si>
-    <t>Row 5: Weight per Property</t>
+    <t xml:space="preserve">Row 5: Weight per Property</t>
   </si>
   <si>
-    <t>W1</t>
+    <t xml:space="preserve">W1</t>
   </si>
   <si>
-    <t>W2...</t>
+    <t xml:space="preserve">W2...</t>
   </si>
   <si>
-    <t>...Wn</t>
+    <t xml:space="preserve">...Wn</t>
   </si>
   <si>
     <t xml:space="preserve">Row 6: Player1 </t>
   </si>
   <si>
-    <t>The number of Player 1's Strategies</t>
+    <t xml:space="preserve">The number of Player 1's Strategies</t>
   </si>
   <si>
-    <t>Strategy 1-props 1</t>
+    <t xml:space="preserve">Strategy 1-props 1</t>
   </si>
   <si>
-    <t>Strategy 1-props 2</t>
+    <t xml:space="preserve">Strategy 1-props 2</t>
   </si>
   <si>
-    <t>...Strategy 1-props n</t>
+    <t xml:space="preserve">...Strategy 1-props n</t>
   </si>
   <si>
-    <t>Strategy 2 props 1</t>
+    <t xml:space="preserve">Strategy 2 props 1</t>
   </si>
   <si>
-    <t>Strategy 2-props 2</t>
+    <t xml:space="preserve">Strategy 2-props 2</t>
   </si>
   <si>
-    <t>...Strategy 2-props n</t>
+    <t xml:space="preserve">...Strategy 2-props n</t>
   </si>
   <si>
     <t xml:space="preserve">Row 7: Player 2 </t>
   </si>
   <si>
-    <t>The number of Player 2's Strategies</t>
+    <t xml:space="preserve">The number of Player 2's Strategies</t>
   </si>
   <si>
-    <t>......</t>
+    <t xml:space="preserve">......</t>
   </si>
   <si>
-    <t>..........</t>
+    <t xml:space="preserve">..........</t>
   </si>
   <si>
-    <t>Row i: Player m</t>
+    <t xml:space="preserve">Row i: Player m</t>
   </si>
   <si>
-    <t>The number of Player m's Strategies</t>
+    <t xml:space="preserve">The number of Player m's Strategies</t>
   </si>
   <si>
-    <t>STRATEGIES CONFLICT DATA SET</t>
+    <t xml:space="preserve">STRATEGIES CONFLICT DATA SET</t>
   </si>
   <si>
-    <t>Row i+1: Player 1</t>
+    <t xml:space="preserve">Row i+1: Player 1</t>
   </si>
   <si>
-    <t>Strategy Pairs*: PlayerNo, StratNo, PLayerNo Strat No</t>
+    <t xml:space="preserve">Strategy Pairs*: PlayerNo, StratNo, PLayerNo Strat No</t>
   </si>
   <si>
-    <t>Strategy Pairs*</t>
+    <t xml:space="preserve">Strategy Pairs*</t>
   </si>
   <si>
-    <t>Row i+2: Player 2</t>
+    <t xml:space="preserve">Row i+2: Player 2</t>
   </si>
   <si>
-    <t>Row i+3: Player 3</t>
+    <t xml:space="preserve">Row i+3: Player 3</t>
   </si>
   <si>
-    <t>Strategy pairs: Pairs conflicting to current Strategy</t>
+    <t xml:space="preserve">Strategy pairs: Pairs conflicting to current Strategy</t>
   </si>
   <si>
-    <t>User Input</t>
+    <t xml:space="preserve">User Input</t>
   </si>
   <si>
-    <t>0.622</t>
+    <t xml:space="preserve">0.622</t>
   </si>
   <si>
-    <t>0.1266</t>
+    <t xml:space="preserve">0.1266</t>
   </si>
   <si>
-    <t>0.138983</t>
-  </si>
-  <si>
-    <t>0.172666</t>
+    <t xml:space="preserve">0.172666</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF404040"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="true"/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <b val="true"/>
+      <i val="true"/>
       <sz val="20"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,655 +266,535 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFE2EFDA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFE2EFDA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFCE4D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFBF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8EA9DB"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9BC2E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D08E"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
-    <border>
+  <borders count="18">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="58">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF8EA9DB"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFCE4D6"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0070C0"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFE2EFDA"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF404040"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:CG221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,7 +817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -948,7 +833,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
@@ -966,7 +851,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -984,7 +869,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1000,7 +885,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -1018,7 +903,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
         <v>25</v>
       </c>
@@ -1045,7 +930,7 @@
       </c>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
         <v>33</v>
       </c>
@@ -1072,7 +957,7 @@
       </c>
       <c r="I8" s="31"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
         <v>35</v>
       </c>
@@ -1099,7 +984,7 @@
       </c>
       <c r="I9" s="31"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="37" t="s">
         <v>37</v>
       </c>
@@ -1126,13 +1011,13 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="39" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="40"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -1152,7 +1037,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>43</v>
       </c>
@@ -1172,7 +1057,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1192,13 +1077,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="18.75">
+    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="26.25">
-      <c r="A16" s="49" t="s">
+    <row r="16" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="31"/>
@@ -1232,11 +1117,11 @@
       <c r="AD16" s="31"/>
       <c r="AE16" s="31"/>
     </row>
-    <row r="17" spans="1:85">
-      <c r="A17" s="43">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="44" t="n">
         <v>0</v>
       </c>
       <c r="C17" s="31"/>
@@ -1269,12 +1154,12 @@
       <c r="AD17" s="31"/>
       <c r="AE17" s="31"/>
     </row>
-    <row r="18" spans="1:85">
-      <c r="A18" s="43">
-        <v>0</v>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="45" t="n">
+        <v>3</v>
       </c>
-      <c r="B18" s="43">
-        <v>0</v>
+      <c r="B18" s="46" t="n">
+        <v>2</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -1306,12 +1191,12 @@
       <c r="AD18" s="31"/>
       <c r="AE18" s="31"/>
     </row>
-    <row r="19" spans="1:85">
-      <c r="A19" s="44">
-        <v>0</v>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="47" t="n">
+        <v>1</v>
       </c>
-      <c r="B19" s="44">
-        <v>0</v>
+      <c r="B19" s="46" t="s">
+        <v>47</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
@@ -1343,15 +1228,17 @@
       <c r="AD19" s="31"/>
       <c r="AE19" s="31"/>
     </row>
-    <row r="20" spans="1:85">
-      <c r="A20" s="45">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="B20" s="46">
-        <v>2</v>
+      <c r="B20" s="49" t="s">
+        <v>48</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="50" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D20" s="51"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
@@ -1434,14 +1321,16 @@
       <c r="CF20" s="31"/>
       <c r="CG20" s="31"/>
     </row>
-    <row r="21" spans="1:85">
-      <c r="A21" s="48">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="B21" s="46" t="s">
-        <v>47</v>
+      <c r="B21" s="53" t="n">
+        <v>0.1222</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="54" t="n">
+        <v>1680</v>
+      </c>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
@@ -1525,28 +1414,20 @@
       <c r="CF21" s="31"/>
       <c r="CG21" s="31"/>
     </row>
-    <row r="22" spans="1:85">
-      <c r="A22" s="53">
-        <v>3</v>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="52" t="n">
+        <v>1</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="47">
-        <v>1600</v>
-      </c>
-      <c r="D22" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="51">
-        <v>1680</v>
-      </c>
-      <c r="F22" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="52">
+      <c r="C22" s="54" t="n">
         <v>1714</v>
       </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
@@ -1626,11 +1507,7 @@
       <c r="CF22" s="31"/>
       <c r="CG22" s="31"/>
     </row>
-    <row r="23" spans="1:85">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -1713,11 +1590,7 @@
       <c r="CF23" s="31"/>
       <c r="CG23" s="31"/>
     </row>
-    <row r="24" spans="1:85">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
@@ -1800,9 +1673,9 @@
       <c r="CF24" s="31"/>
       <c r="CG24" s="31"/>
     </row>
-    <row r="25" spans="1:85" ht="21" customHeight="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
+    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
       <c r="AF25" s="31"/>
       <c r="AG25" s="31"/>
       <c r="AH25" s="31"/>
@@ -1858,7 +1731,7 @@
       <c r="CF25" s="31"/>
       <c r="CG25" s="31"/>
     </row>
-    <row r="26" spans="1:85">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AF26" s="31"/>
       <c r="AG26" s="31"/>
       <c r="AH26" s="31"/>
@@ -1914,7 +1787,7 @@
       <c r="CF26" s="31"/>
       <c r="CG26" s="31"/>
     </row>
-    <row r="27" spans="1:85">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AF27" s="31"/>
       <c r="AG27" s="31"/>
       <c r="AH27" s="31"/>
@@ -1970,7 +1843,7 @@
       <c r="CF27" s="31"/>
       <c r="CG27" s="31"/>
     </row>
-    <row r="28" spans="1:85">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AF28" s="31"/>
       <c r="AG28" s="31"/>
       <c r="AH28" s="31"/>
@@ -2026,7 +1899,7 @@
       <c r="CF28" s="31"/>
       <c r="CG28" s="31"/>
     </row>
-    <row r="29" spans="1:85">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -2113,7 +1986,7 @@
       <c r="CF29" s="31"/>
       <c r="CG29" s="31"/>
     </row>
-    <row r="30" spans="1:85">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -2200,7 +2073,7 @@
       <c r="CF30" s="31"/>
       <c r="CG30" s="31"/>
     </row>
-    <row r="31" spans="1:85">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -2287,7 +2160,7 @@
       <c r="CF31" s="31"/>
       <c r="CG31" s="31"/>
     </row>
-    <row r="32" spans="1:85">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="31"/>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -2374,7 +2247,7 @@
       <c r="CF32" s="31"/>
       <c r="CG32" s="31"/>
     </row>
-    <row r="33" spans="1:85">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="31"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -2461,7 +2334,7 @@
       <c r="CF33" s="31"/>
       <c r="CG33" s="31"/>
     </row>
-    <row r="34" spans="1:85">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="31"/>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -2548,7 +2421,7 @@
       <c r="CF34" s="31"/>
       <c r="CG34" s="31"/>
     </row>
-    <row r="35" spans="1:85">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
@@ -2635,7 +2508,7 @@
       <c r="CF35" s="31"/>
       <c r="CG35" s="31"/>
     </row>
-    <row r="36" spans="1:85">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -2722,7 +2595,7 @@
       <c r="CF36" s="31"/>
       <c r="CG36" s="31"/>
     </row>
-    <row r="37" spans="1:85">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
@@ -2809,7 +2682,7 @@
       <c r="CF37" s="31"/>
       <c r="CG37" s="31"/>
     </row>
-    <row r="38" spans="1:85">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="31"/>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
@@ -2896,7 +2769,7 @@
       <c r="CF38" s="31"/>
       <c r="CG38" s="31"/>
     </row>
-    <row r="39" spans="1:85">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="31"/>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
@@ -2983,7 +2856,7 @@
       <c r="CF39" s="31"/>
       <c r="CG39" s="31"/>
     </row>
-    <row r="40" spans="1:85">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="31"/>
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
@@ -3070,7 +2943,7 @@
       <c r="CF40" s="31"/>
       <c r="CG40" s="31"/>
     </row>
-    <row r="41" spans="1:85">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="31"/>
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
@@ -3157,7 +3030,7 @@
       <c r="CF41" s="31"/>
       <c r="CG41" s="31"/>
     </row>
-    <row r="42" spans="1:85">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="31"/>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
@@ -3244,7 +3117,7 @@
       <c r="CF42" s="31"/>
       <c r="CG42" s="31"/>
     </row>
-    <row r="43" spans="1:85">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="31"/>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
@@ -3331,7 +3204,7 @@
       <c r="CF43" s="31"/>
       <c r="CG43" s="31"/>
     </row>
-    <row r="44" spans="1:85">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
@@ -3418,7 +3291,7 @@
       <c r="CF44" s="31"/>
       <c r="CG44" s="31"/>
     </row>
-    <row r="45" spans="1:85">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="31"/>
       <c r="B45" s="31"/>
       <c r="C45" s="31"/>
@@ -3505,7 +3378,7 @@
       <c r="CF45" s="31"/>
       <c r="CG45" s="31"/>
     </row>
-    <row r="46" spans="1:85">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="31"/>
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
@@ -3592,7 +3465,7 @@
       <c r="CF46" s="31"/>
       <c r="CG46" s="31"/>
     </row>
-    <row r="47" spans="1:85">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="31"/>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
@@ -3679,7 +3552,7 @@
       <c r="CF47" s="31"/>
       <c r="CG47" s="31"/>
     </row>
-    <row r="48" spans="1:85">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
@@ -3766,7 +3639,7 @@
       <c r="CF48" s="31"/>
       <c r="CG48" s="31"/>
     </row>
-    <row r="49" spans="1:85">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
@@ -3853,7 +3726,7 @@
       <c r="CF49" s="31"/>
       <c r="CG49" s="31"/>
     </row>
-    <row r="50" spans="1:85">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
@@ -3940,7 +3813,7 @@
       <c r="CF50" s="31"/>
       <c r="CG50" s="31"/>
     </row>
-    <row r="51" spans="1:85">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="31"/>
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
@@ -4027,7 +3900,7 @@
       <c r="CF51" s="31"/>
       <c r="CG51" s="31"/>
     </row>
-    <row r="52" spans="1:85">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="31"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
@@ -4114,7 +3987,7 @@
       <c r="CF52" s="31"/>
       <c r="CG52" s="31"/>
     </row>
-    <row r="53" spans="1:85">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="31"/>
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
@@ -4201,7 +4074,7 @@
       <c r="CF53" s="31"/>
       <c r="CG53" s="31"/>
     </row>
-    <row r="54" spans="1:85">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="31"/>
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
@@ -4288,7 +4161,7 @@
       <c r="CF54" s="31"/>
       <c r="CG54" s="31"/>
     </row>
-    <row r="55" spans="1:85">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="31"/>
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
@@ -4375,7 +4248,7 @@
       <c r="CF55" s="31"/>
       <c r="CG55" s="31"/>
     </row>
-    <row r="56" spans="1:85">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="31"/>
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
@@ -4462,7 +4335,7 @@
       <c r="CF56" s="31"/>
       <c r="CG56" s="31"/>
     </row>
-    <row r="57" spans="1:85">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="31"/>
       <c r="B57" s="31"/>
       <c r="C57" s="31"/>
@@ -4549,7 +4422,7 @@
       <c r="CF57" s="31"/>
       <c r="CG57" s="31"/>
     </row>
-    <row r="58" spans="1:85">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="31"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31"/>
@@ -4636,7 +4509,7 @@
       <c r="CF58" s="31"/>
       <c r="CG58" s="31"/>
     </row>
-    <row r="59" spans="1:85">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="31"/>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
@@ -4723,7 +4596,7 @@
       <c r="CF59" s="31"/>
       <c r="CG59" s="31"/>
     </row>
-    <row r="60" spans="1:85">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="31"/>
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
@@ -4810,7 +4683,7 @@
       <c r="CF60" s="31"/>
       <c r="CG60" s="31"/>
     </row>
-    <row r="61" spans="1:85">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="31"/>
       <c r="B61" s="31"/>
       <c r="C61" s="31"/>
@@ -4897,7 +4770,7 @@
       <c r="CF61" s="31"/>
       <c r="CG61" s="31"/>
     </row>
-    <row r="62" spans="1:85">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="31"/>
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
@@ -4984,7 +4857,7 @@
       <c r="CF62" s="31"/>
       <c r="CG62" s="31"/>
     </row>
-    <row r="63" spans="1:85">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="31"/>
       <c r="B63" s="31"/>
       <c r="C63" s="31"/>
@@ -5071,7 +4944,7 @@
       <c r="CF63" s="31"/>
       <c r="CG63" s="31"/>
     </row>
-    <row r="64" spans="1:85">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="31"/>
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
@@ -5158,7 +5031,7 @@
       <c r="CF64" s="31"/>
       <c r="CG64" s="31"/>
     </row>
-    <row r="65" spans="1:85">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="31"/>
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
@@ -5245,7 +5118,7 @@
       <c r="CF65" s="31"/>
       <c r="CG65" s="31"/>
     </row>
-    <row r="66" spans="1:85">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="31"/>
       <c r="B66" s="31"/>
       <c r="C66" s="31"/>
@@ -5332,7 +5205,7 @@
       <c r="CF66" s="31"/>
       <c r="CG66" s="31"/>
     </row>
-    <row r="67" spans="1:85">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="31"/>
       <c r="B67" s="31"/>
       <c r="C67" s="31"/>
@@ -5419,7 +5292,7 @@
       <c r="CF67" s="31"/>
       <c r="CG67" s="31"/>
     </row>
-    <row r="68" spans="1:85">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="31"/>
       <c r="B68" s="31"/>
       <c r="C68" s="31"/>
@@ -5506,7 +5379,7 @@
       <c r="CF68" s="31"/>
       <c r="CG68" s="31"/>
     </row>
-    <row r="69" spans="1:85">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="31"/>
       <c r="B69" s="31"/>
       <c r="C69" s="31"/>
@@ -5593,7 +5466,7 @@
       <c r="CF69" s="31"/>
       <c r="CG69" s="31"/>
     </row>
-    <row r="70" spans="1:85">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="31"/>
       <c r="B70" s="31"/>
       <c r="C70" s="31"/>
@@ -5680,7 +5553,7 @@
       <c r="CF70" s="31"/>
       <c r="CG70" s="31"/>
     </row>
-    <row r="71" spans="1:85">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="31"/>
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
@@ -5767,7 +5640,7 @@
       <c r="CF71" s="31"/>
       <c r="CG71" s="31"/>
     </row>
-    <row r="72" spans="1:85">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="31"/>
       <c r="B72" s="31"/>
       <c r="C72" s="31"/>
@@ -5854,7 +5727,7 @@
       <c r="CF72" s="31"/>
       <c r="CG72" s="31"/>
     </row>
-    <row r="73" spans="1:85">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="31"/>
       <c r="B73" s="31"/>
       <c r="C73" s="31"/>
@@ -5941,7 +5814,7 @@
       <c r="CF73" s="31"/>
       <c r="CG73" s="31"/>
     </row>
-    <row r="74" spans="1:85">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="31"/>
       <c r="B74" s="31"/>
       <c r="C74" s="31"/>
@@ -6028,7 +5901,7 @@
       <c r="CF74" s="31"/>
       <c r="CG74" s="31"/>
     </row>
-    <row r="75" spans="1:85">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="31"/>
       <c r="B75" s="31"/>
       <c r="C75" s="31"/>
@@ -6115,7 +5988,7 @@
       <c r="CF75" s="31"/>
       <c r="CG75" s="31"/>
     </row>
-    <row r="76" spans="1:85">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="31"/>
       <c r="B76" s="31"/>
       <c r="C76" s="31"/>
@@ -6202,7 +6075,7 @@
       <c r="CF76" s="31"/>
       <c r="CG76" s="31"/>
     </row>
-    <row r="77" spans="1:85">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="31"/>
       <c r="B77" s="31"/>
       <c r="C77" s="31"/>
@@ -6289,7 +6162,7 @@
       <c r="CF77" s="31"/>
       <c r="CG77" s="31"/>
     </row>
-    <row r="78" spans="1:85">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="31"/>
       <c r="B78" s="31"/>
       <c r="C78" s="31"/>
@@ -6376,7 +6249,7 @@
       <c r="CF78" s="31"/>
       <c r="CG78" s="31"/>
     </row>
-    <row r="79" spans="1:85">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="31"/>
       <c r="B79" s="31"/>
       <c r="C79" s="31"/>
@@ -6463,7 +6336,7 @@
       <c r="CF79" s="31"/>
       <c r="CG79" s="31"/>
     </row>
-    <row r="80" spans="1:85">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="31"/>
       <c r="B80" s="31"/>
       <c r="C80" s="31"/>
@@ -6550,7 +6423,7 @@
       <c r="CF80" s="31"/>
       <c r="CG80" s="31"/>
     </row>
-    <row r="81" spans="1:85">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="31"/>
       <c r="B81" s="31"/>
       <c r="C81" s="31"/>
@@ -6637,7 +6510,7 @@
       <c r="CF81" s="31"/>
       <c r="CG81" s="31"/>
     </row>
-    <row r="82" spans="1:85">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="31"/>
       <c r="B82" s="31"/>
       <c r="C82" s="31"/>
@@ -6724,7 +6597,7 @@
       <c r="CF82" s="31"/>
       <c r="CG82" s="31"/>
     </row>
-    <row r="83" spans="1:85">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="31"/>
       <c r="B83" s="31"/>
       <c r="C83" s="31"/>
@@ -6811,7 +6684,7 @@
       <c r="CF83" s="31"/>
       <c r="CG83" s="31"/>
     </row>
-    <row r="84" spans="1:85">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="31"/>
       <c r="B84" s="31"/>
       <c r="C84" s="31"/>
@@ -6898,7 +6771,7 @@
       <c r="CF84" s="31"/>
       <c r="CG84" s="31"/>
     </row>
-    <row r="85" spans="1:85">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
       <c r="C85" s="31"/>
@@ -6985,7 +6858,7 @@
       <c r="CF85" s="31"/>
       <c r="CG85" s="31"/>
     </row>
-    <row r="86" spans="1:85">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="31"/>
       <c r="B86" s="31"/>
       <c r="C86" s="31"/>
@@ -7072,7 +6945,7 @@
       <c r="CF86" s="31"/>
       <c r="CG86" s="31"/>
     </row>
-    <row r="87" spans="1:85">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="31"/>
       <c r="B87" s="31"/>
       <c r="C87" s="31"/>
@@ -7159,7 +7032,7 @@
       <c r="CF87" s="31"/>
       <c r="CG87" s="31"/>
     </row>
-    <row r="88" spans="1:85">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="31"/>
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
@@ -7246,7 +7119,7 @@
       <c r="CF88" s="31"/>
       <c r="CG88" s="31"/>
     </row>
-    <row r="89" spans="1:85">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="31"/>
       <c r="B89" s="31"/>
       <c r="C89" s="31"/>
@@ -7333,7 +7206,7 @@
       <c r="CF89" s="31"/>
       <c r="CG89" s="31"/>
     </row>
-    <row r="90" spans="1:85">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="31"/>
       <c r="B90" s="31"/>
       <c r="C90" s="31"/>
@@ -7420,7 +7293,7 @@
       <c r="CF90" s="31"/>
       <c r="CG90" s="31"/>
     </row>
-    <row r="91" spans="1:85">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="31"/>
       <c r="B91" s="31"/>
       <c r="C91" s="31"/>
@@ -7507,7 +7380,7 @@
       <c r="CF91" s="31"/>
       <c r="CG91" s="31"/>
     </row>
-    <row r="92" spans="1:85">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="31"/>
       <c r="B92" s="31"/>
       <c r="C92" s="31"/>
@@ -7594,7 +7467,7 @@
       <c r="CF92" s="31"/>
       <c r="CG92" s="31"/>
     </row>
-    <row r="93" spans="1:85">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="31"/>
       <c r="B93" s="31"/>
       <c r="C93" s="31"/>
@@ -7681,7 +7554,7 @@
       <c r="CF93" s="31"/>
       <c r="CG93" s="31"/>
     </row>
-    <row r="94" spans="1:85">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="31"/>
       <c r="B94" s="31"/>
       <c r="C94" s="31"/>
@@ -7768,7 +7641,7 @@
       <c r="CF94" s="31"/>
       <c r="CG94" s="31"/>
     </row>
-    <row r="95" spans="1:85">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="31"/>
       <c r="B95" s="31"/>
       <c r="C95" s="31"/>
@@ -7855,7 +7728,7 @@
       <c r="CF95" s="31"/>
       <c r="CG95" s="31"/>
     </row>
-    <row r="96" spans="1:85">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="31"/>
       <c r="B96" s="31"/>
       <c r="C96" s="31"/>
@@ -7942,7 +7815,7 @@
       <c r="CF96" s="31"/>
       <c r="CG96" s="31"/>
     </row>
-    <row r="97" spans="1:85">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="31"/>
       <c r="B97" s="31"/>
       <c r="C97" s="31"/>
@@ -8029,7 +7902,7 @@
       <c r="CF97" s="31"/>
       <c r="CG97" s="31"/>
     </row>
-    <row r="98" spans="1:85">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="31"/>
       <c r="B98" s="31"/>
       <c r="C98" s="31"/>
@@ -8116,7 +7989,7 @@
       <c r="CF98" s="31"/>
       <c r="CG98" s="31"/>
     </row>
-    <row r="99" spans="1:85">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="31"/>
       <c r="B99" s="31"/>
       <c r="C99" s="31"/>
@@ -8203,7 +8076,7 @@
       <c r="CF99" s="31"/>
       <c r="CG99" s="31"/>
     </row>
-    <row r="100" spans="1:85">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="31"/>
       <c r="B100" s="31"/>
       <c r="C100" s="31"/>
@@ -8290,7 +8163,7 @@
       <c r="CF100" s="31"/>
       <c r="CG100" s="31"/>
     </row>
-    <row r="101" spans="1:85">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="31"/>
       <c r="B101" s="31"/>
       <c r="C101" s="31"/>
@@ -8377,7 +8250,7 @@
       <c r="CF101" s="31"/>
       <c r="CG101" s="31"/>
     </row>
-    <row r="102" spans="1:85">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="31"/>
       <c r="B102" s="31"/>
       <c r="C102" s="31"/>
@@ -8464,7 +8337,7 @@
       <c r="CF102" s="31"/>
       <c r="CG102" s="31"/>
     </row>
-    <row r="103" spans="1:85">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="31"/>
       <c r="B103" s="31"/>
       <c r="C103" s="31"/>
@@ -8551,7 +8424,7 @@
       <c r="CF103" s="31"/>
       <c r="CG103" s="31"/>
     </row>
-    <row r="104" spans="1:85">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="31"/>
       <c r="B104" s="31"/>
       <c r="C104" s="31"/>
@@ -8638,7 +8511,7 @@
       <c r="CF104" s="31"/>
       <c r="CG104" s="31"/>
     </row>
-    <row r="105" spans="1:85">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="31"/>
       <c r="B105" s="31"/>
       <c r="C105" s="31"/>
@@ -8725,7 +8598,7 @@
       <c r="CF105" s="31"/>
       <c r="CG105" s="31"/>
     </row>
-    <row r="106" spans="1:85">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="31"/>
       <c r="B106" s="31"/>
       <c r="C106" s="31"/>
@@ -8812,7 +8685,7 @@
       <c r="CF106" s="31"/>
       <c r="CG106" s="31"/>
     </row>
-    <row r="107" spans="1:85">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="31"/>
       <c r="B107" s="31"/>
       <c r="C107" s="31"/>
@@ -8899,7 +8772,7 @@
       <c r="CF107" s="31"/>
       <c r="CG107" s="31"/>
     </row>
-    <row r="108" spans="1:85">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="31"/>
       <c r="B108" s="31"/>
       <c r="C108" s="31"/>
@@ -8986,7 +8859,7 @@
       <c r="CF108" s="31"/>
       <c r="CG108" s="31"/>
     </row>
-    <row r="109" spans="1:85">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="31"/>
       <c r="B109" s="31"/>
       <c r="C109" s="31"/>
@@ -9073,7 +8946,7 @@
       <c r="CF109" s="31"/>
       <c r="CG109" s="31"/>
     </row>
-    <row r="110" spans="1:85">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="31"/>
       <c r="B110" s="31"/>
       <c r="C110" s="31"/>
@@ -9160,7 +9033,7 @@
       <c r="CF110" s="31"/>
       <c r="CG110" s="31"/>
     </row>
-    <row r="111" spans="1:85">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="31"/>
       <c r="B111" s="31"/>
       <c r="C111" s="31"/>
@@ -9247,7 +9120,7 @@
       <c r="CF111" s="31"/>
       <c r="CG111" s="31"/>
     </row>
-    <row r="112" spans="1:85">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="31"/>
       <c r="B112" s="31"/>
       <c r="C112" s="31"/>
@@ -9334,7 +9207,7 @@
       <c r="CF112" s="31"/>
       <c r="CG112" s="31"/>
     </row>
-    <row r="113" spans="1:85">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="31"/>
       <c r="B113" s="31"/>
       <c r="C113" s="31"/>
@@ -9421,7 +9294,7 @@
       <c r="CF113" s="31"/>
       <c r="CG113" s="31"/>
     </row>
-    <row r="114" spans="1:85">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="31"/>
       <c r="B114" s="31"/>
       <c r="C114" s="31"/>
@@ -9508,7 +9381,7 @@
       <c r="CF114" s="31"/>
       <c r="CG114" s="31"/>
     </row>
-    <row r="115" spans="1:85">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="31"/>
       <c r="B115" s="31"/>
       <c r="C115" s="31"/>
@@ -9595,7 +9468,7 @@
       <c r="CF115" s="31"/>
       <c r="CG115" s="31"/>
     </row>
-    <row r="116" spans="1:85">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="31"/>
       <c r="B116" s="31"/>
       <c r="C116" s="31"/>
@@ -9682,7 +9555,7 @@
       <c r="CF116" s="31"/>
       <c r="CG116" s="31"/>
     </row>
-    <row r="117" spans="1:85">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="31"/>
       <c r="B117" s="31"/>
       <c r="C117" s="31"/>
@@ -9769,7 +9642,7 @@
       <c r="CF117" s="31"/>
       <c r="CG117" s="31"/>
     </row>
-    <row r="118" spans="1:85">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="31"/>
       <c r="B118" s="31"/>
       <c r="C118" s="31"/>
@@ -9856,7 +9729,7 @@
       <c r="CF118" s="31"/>
       <c r="CG118" s="31"/>
     </row>
-    <row r="119" spans="1:85">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="31"/>
       <c r="B119" s="31"/>
       <c r="C119" s="31"/>
@@ -9943,7 +9816,7 @@
       <c r="CF119" s="31"/>
       <c r="CG119" s="31"/>
     </row>
-    <row r="120" spans="1:85">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="31"/>
       <c r="B120" s="31"/>
       <c r="C120" s="31"/>
@@ -10030,7 +9903,7 @@
       <c r="CF120" s="31"/>
       <c r="CG120" s="31"/>
     </row>
-    <row r="121" spans="1:85">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="31"/>
       <c r="B121" s="31"/>
       <c r="C121" s="31"/>
@@ -10117,7 +9990,7 @@
       <c r="CF121" s="31"/>
       <c r="CG121" s="31"/>
     </row>
-    <row r="122" spans="1:85">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="31"/>
       <c r="B122" s="31"/>
       <c r="C122" s="31"/>
@@ -10204,7 +10077,7 @@
       <c r="CF122" s="31"/>
       <c r="CG122" s="31"/>
     </row>
-    <row r="123" spans="1:85">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="31"/>
       <c r="B123" s="31"/>
       <c r="C123" s="31"/>
@@ -10291,7 +10164,7 @@
       <c r="CF123" s="31"/>
       <c r="CG123" s="31"/>
     </row>
-    <row r="124" spans="1:85">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="31"/>
       <c r="B124" s="31"/>
       <c r="C124" s="31"/>
@@ -10378,7 +10251,7 @@
       <c r="CF124" s="31"/>
       <c r="CG124" s="31"/>
     </row>
-    <row r="125" spans="1:85">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="31"/>
       <c r="B125" s="31"/>
       <c r="C125" s="31"/>
@@ -10465,7 +10338,7 @@
       <c r="CF125" s="31"/>
       <c r="CG125" s="31"/>
     </row>
-    <row r="126" spans="1:85">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="31"/>
       <c r="B126" s="31"/>
       <c r="C126" s="31"/>
@@ -10552,7 +10425,7 @@
       <c r="CF126" s="31"/>
       <c r="CG126" s="31"/>
     </row>
-    <row r="127" spans="1:85">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="31"/>
       <c r="B127" s="31"/>
       <c r="C127" s="31"/>
@@ -10639,7 +10512,7 @@
       <c r="CF127" s="31"/>
       <c r="CG127" s="31"/>
     </row>
-    <row r="128" spans="1:85">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="31"/>
       <c r="B128" s="31"/>
       <c r="C128" s="31"/>
@@ -10726,7 +10599,7 @@
       <c r="CF128" s="31"/>
       <c r="CG128" s="31"/>
     </row>
-    <row r="129" spans="1:85">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="31"/>
       <c r="B129" s="31"/>
       <c r="C129" s="31"/>
@@ -10813,7 +10686,7 @@
       <c r="CF129" s="31"/>
       <c r="CG129" s="31"/>
     </row>
-    <row r="130" spans="1:85">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="31"/>
       <c r="B130" s="31"/>
       <c r="C130" s="31"/>
@@ -10900,7 +10773,7 @@
       <c r="CF130" s="31"/>
       <c r="CG130" s="31"/>
     </row>
-    <row r="131" spans="1:85">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="31"/>
       <c r="B131" s="31"/>
       <c r="C131" s="31"/>
@@ -10987,7 +10860,7 @@
       <c r="CF131" s="31"/>
       <c r="CG131" s="31"/>
     </row>
-    <row r="132" spans="1:85">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="31"/>
       <c r="B132" s="31"/>
       <c r="C132" s="31"/>
@@ -11074,7 +10947,7 @@
       <c r="CF132" s="31"/>
       <c r="CG132" s="31"/>
     </row>
-    <row r="133" spans="1:85">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="31"/>
       <c r="B133" s="31"/>
       <c r="C133" s="31"/>
@@ -11161,7 +11034,7 @@
       <c r="CF133" s="31"/>
       <c r="CG133" s="31"/>
     </row>
-    <row r="134" spans="1:85">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="31"/>
       <c r="B134" s="31"/>
       <c r="C134" s="31"/>
@@ -11248,7 +11121,7 @@
       <c r="CF134" s="31"/>
       <c r="CG134" s="31"/>
     </row>
-    <row r="135" spans="1:85">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="31"/>
       <c r="B135" s="31"/>
       <c r="C135" s="31"/>
@@ -11335,7 +11208,7 @@
       <c r="CF135" s="31"/>
       <c r="CG135" s="31"/>
     </row>
-    <row r="136" spans="1:85">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="31"/>
       <c r="B136" s="31"/>
       <c r="C136" s="31"/>
@@ -11422,7 +11295,7 @@
       <c r="CF136" s="31"/>
       <c r="CG136" s="31"/>
     </row>
-    <row r="137" spans="1:85">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="31"/>
       <c r="B137" s="31"/>
       <c r="C137" s="31"/>
@@ -11509,7 +11382,7 @@
       <c r="CF137" s="31"/>
       <c r="CG137" s="31"/>
     </row>
-    <row r="138" spans="1:85">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="31"/>
       <c r="B138" s="31"/>
       <c r="C138" s="31"/>
@@ -11596,7 +11469,7 @@
       <c r="CF138" s="31"/>
       <c r="CG138" s="31"/>
     </row>
-    <row r="139" spans="1:85">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="31"/>
       <c r="B139" s="31"/>
       <c r="C139" s="31"/>
@@ -11683,7 +11556,7 @@
       <c r="CF139" s="31"/>
       <c r="CG139" s="31"/>
     </row>
-    <row r="140" spans="1:85">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="31"/>
       <c r="B140" s="31"/>
       <c r="C140" s="31"/>
@@ -11770,7 +11643,7 @@
       <c r="CF140" s="31"/>
       <c r="CG140" s="31"/>
     </row>
-    <row r="141" spans="1:85">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="31"/>
       <c r="B141" s="31"/>
       <c r="C141" s="31"/>
@@ -11857,7 +11730,7 @@
       <c r="CF141" s="31"/>
       <c r="CG141" s="31"/>
     </row>
-    <row r="142" spans="1:85">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="31"/>
       <c r="B142" s="31"/>
       <c r="C142" s="31"/>
@@ -11944,7 +11817,7 @@
       <c r="CF142" s="31"/>
       <c r="CG142" s="31"/>
     </row>
-    <row r="143" spans="1:85">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="31"/>
       <c r="B143" s="31"/>
       <c r="C143" s="31"/>
@@ -12031,7 +11904,7 @@
       <c r="CF143" s="31"/>
       <c r="CG143" s="31"/>
     </row>
-    <row r="144" spans="1:85">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="31"/>
       <c r="B144" s="31"/>
       <c r="C144" s="31"/>
@@ -12118,7 +11991,7 @@
       <c r="CF144" s="31"/>
       <c r="CG144" s="31"/>
     </row>
-    <row r="145" spans="1:85">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="31"/>
       <c r="B145" s="31"/>
       <c r="C145" s="31"/>
@@ -12205,7 +12078,7 @@
       <c r="CF145" s="31"/>
       <c r="CG145" s="31"/>
     </row>
-    <row r="146" spans="1:85">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="31"/>
       <c r="B146" s="31"/>
       <c r="C146" s="31"/>
@@ -12292,7 +12165,7 @@
       <c r="CF146" s="31"/>
       <c r="CG146" s="31"/>
     </row>
-    <row r="147" spans="1:85">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="31"/>
       <c r="B147" s="31"/>
       <c r="C147" s="31"/>
@@ -12379,7 +12252,7 @@
       <c r="CF147" s="31"/>
       <c r="CG147" s="31"/>
     </row>
-    <row r="148" spans="1:85">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="31"/>
       <c r="B148" s="31"/>
       <c r="C148" s="31"/>
@@ -12466,7 +12339,7 @@
       <c r="CF148" s="31"/>
       <c r="CG148" s="31"/>
     </row>
-    <row r="149" spans="1:85">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="31"/>
       <c r="B149" s="31"/>
       <c r="C149" s="31"/>
@@ -12553,7 +12426,7 @@
       <c r="CF149" s="31"/>
       <c r="CG149" s="31"/>
     </row>
-    <row r="150" spans="1:85">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="31"/>
       <c r="B150" s="31"/>
       <c r="C150" s="31"/>
@@ -12640,7 +12513,7 @@
       <c r="CF150" s="31"/>
       <c r="CG150" s="31"/>
     </row>
-    <row r="151" spans="1:85">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="31"/>
       <c r="B151" s="31"/>
       <c r="C151" s="31"/>
@@ -12727,7 +12600,7 @@
       <c r="CF151" s="31"/>
       <c r="CG151" s="31"/>
     </row>
-    <row r="152" spans="1:85">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="31"/>
       <c r="B152" s="31"/>
       <c r="C152" s="31"/>
@@ -12814,7 +12687,7 @@
       <c r="CF152" s="31"/>
       <c r="CG152" s="31"/>
     </row>
-    <row r="153" spans="1:85">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="31"/>
       <c r="B153" s="31"/>
       <c r="C153" s="31"/>
@@ -12901,7 +12774,7 @@
       <c r="CF153" s="31"/>
       <c r="CG153" s="31"/>
     </row>
-    <row r="154" spans="1:85">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="31"/>
       <c r="B154" s="31"/>
       <c r="C154" s="31"/>
@@ -12988,7 +12861,7 @@
       <c r="CF154" s="31"/>
       <c r="CG154" s="31"/>
     </row>
-    <row r="155" spans="1:85">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="31"/>
       <c r="B155" s="31"/>
       <c r="C155" s="31"/>
@@ -13075,7 +12948,7 @@
       <c r="CF155" s="31"/>
       <c r="CG155" s="31"/>
     </row>
-    <row r="156" spans="1:85">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="31"/>
       <c r="B156" s="31"/>
       <c r="C156" s="31"/>
@@ -13162,7 +13035,7 @@
       <c r="CF156" s="31"/>
       <c r="CG156" s="31"/>
     </row>
-    <row r="157" spans="1:85">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="31"/>
       <c r="B157" s="31"/>
       <c r="C157" s="31"/>
@@ -13249,7 +13122,7 @@
       <c r="CF157" s="31"/>
       <c r="CG157" s="31"/>
     </row>
-    <row r="158" spans="1:85">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="31"/>
       <c r="B158" s="31"/>
       <c r="C158" s="31"/>
@@ -13336,7 +13209,7 @@
       <c r="CF158" s="31"/>
       <c r="CG158" s="31"/>
     </row>
-    <row r="159" spans="1:85">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="31"/>
       <c r="B159" s="31"/>
       <c r="C159" s="31"/>
@@ -13423,7 +13296,7 @@
       <c r="CF159" s="31"/>
       <c r="CG159" s="31"/>
     </row>
-    <row r="160" spans="1:85">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="31"/>
       <c r="B160" s="31"/>
       <c r="C160" s="31"/>
@@ -13510,7 +13383,7 @@
       <c r="CF160" s="31"/>
       <c r="CG160" s="31"/>
     </row>
-    <row r="161" spans="1:85">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="31"/>
       <c r="B161" s="31"/>
       <c r="C161" s="31"/>
@@ -13597,7 +13470,7 @@
       <c r="CF161" s="31"/>
       <c r="CG161" s="31"/>
     </row>
-    <row r="162" spans="1:85">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="31"/>
       <c r="B162" s="31"/>
       <c r="C162" s="31"/>
@@ -13684,7 +13557,7 @@
       <c r="CF162" s="31"/>
       <c r="CG162" s="31"/>
     </row>
-    <row r="163" spans="1:85">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="31"/>
       <c r="B163" s="31"/>
       <c r="C163" s="31"/>
@@ -13771,7 +13644,7 @@
       <c r="CF163" s="31"/>
       <c r="CG163" s="31"/>
     </row>
-    <row r="164" spans="1:85">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="31"/>
       <c r="B164" s="31"/>
       <c r="C164" s="31"/>
@@ -13858,7 +13731,7 @@
       <c r="CF164" s="31"/>
       <c r="CG164" s="31"/>
     </row>
-    <row r="165" spans="1:85">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="31"/>
       <c r="B165" s="31"/>
       <c r="C165" s="31"/>
@@ -13945,7 +13818,7 @@
       <c r="CF165" s="31"/>
       <c r="CG165" s="31"/>
     </row>
-    <row r="166" spans="1:85">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="31"/>
       <c r="B166" s="31"/>
       <c r="C166" s="31"/>
@@ -14032,7 +13905,7 @@
       <c r="CF166" s="31"/>
       <c r="CG166" s="31"/>
     </row>
-    <row r="167" spans="1:85">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="31"/>
       <c r="B167" s="31"/>
       <c r="C167" s="31"/>
@@ -14119,7 +13992,7 @@
       <c r="CF167" s="31"/>
       <c r="CG167" s="31"/>
     </row>
-    <row r="168" spans="1:85">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="31"/>
       <c r="B168" s="31"/>
       <c r="C168" s="31"/>
@@ -14206,7 +14079,7 @@
       <c r="CF168" s="31"/>
       <c r="CG168" s="31"/>
     </row>
-    <row r="169" spans="1:85">
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="31"/>
       <c r="B169" s="31"/>
       <c r="C169" s="31"/>
@@ -14293,7 +14166,7 @@
       <c r="CF169" s="31"/>
       <c r="CG169" s="31"/>
     </row>
-    <row r="170" spans="1:85">
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="31"/>
       <c r="B170" s="31"/>
       <c r="C170" s="31"/>
@@ -14380,7 +14253,7 @@
       <c r="CF170" s="31"/>
       <c r="CG170" s="31"/>
     </row>
-    <row r="171" spans="1:85">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="31"/>
       <c r="B171" s="31"/>
       <c r="C171" s="31"/>
@@ -14467,7 +14340,7 @@
       <c r="CF171" s="31"/>
       <c r="CG171" s="31"/>
     </row>
-    <row r="172" spans="1:85">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="31"/>
       <c r="B172" s="31"/>
       <c r="C172" s="31"/>
@@ -14554,7 +14427,7 @@
       <c r="CF172" s="31"/>
       <c r="CG172" s="31"/>
     </row>
-    <row r="173" spans="1:85">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="31"/>
       <c r="B173" s="31"/>
       <c r="C173" s="31"/>
@@ -14641,7 +14514,7 @@
       <c r="CF173" s="31"/>
       <c r="CG173" s="31"/>
     </row>
-    <row r="174" spans="1:85">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="31"/>
       <c r="B174" s="31"/>
       <c r="C174" s="31"/>
@@ -14728,7 +14601,7 @@
       <c r="CF174" s="31"/>
       <c r="CG174" s="31"/>
     </row>
-    <row r="175" spans="1:85">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="31"/>
       <c r="B175" s="31"/>
       <c r="C175" s="31"/>
@@ -14815,7 +14688,7 @@
       <c r="CF175" s="31"/>
       <c r="CG175" s="31"/>
     </row>
-    <row r="176" spans="1:85">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="31"/>
       <c r="B176" s="31"/>
       <c r="C176" s="31"/>
@@ -14902,7 +14775,7 @@
       <c r="CF176" s="31"/>
       <c r="CG176" s="31"/>
     </row>
-    <row r="177" spans="1:85">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="31"/>
       <c r="B177" s="31"/>
       <c r="C177" s="31"/>
@@ -14989,7 +14862,7 @@
       <c r="CF177" s="31"/>
       <c r="CG177" s="31"/>
     </row>
-    <row r="178" spans="1:85">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="31"/>
       <c r="B178" s="31"/>
       <c r="C178" s="31"/>
@@ -15076,7 +14949,7 @@
       <c r="CF178" s="31"/>
       <c r="CG178" s="31"/>
     </row>
-    <row r="179" spans="1:85">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="31"/>
       <c r="B179" s="31"/>
       <c r="C179" s="31"/>
@@ -15163,7 +15036,7 @@
       <c r="CF179" s="31"/>
       <c r="CG179" s="31"/>
     </row>
-    <row r="180" spans="1:85">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="31"/>
       <c r="B180" s="31"/>
       <c r="C180" s="31"/>
@@ -15250,7 +15123,7 @@
       <c r="CF180" s="31"/>
       <c r="CG180" s="31"/>
     </row>
-    <row r="181" spans="1:85">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="31"/>
       <c r="B181" s="31"/>
       <c r="C181" s="31"/>
@@ -15337,7 +15210,7 @@
       <c r="CF181" s="31"/>
       <c r="CG181" s="31"/>
     </row>
-    <row r="182" spans="1:85">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="31"/>
       <c r="B182" s="31"/>
       <c r="C182" s="31"/>
@@ -15424,7 +15297,7 @@
       <c r="CF182" s="31"/>
       <c r="CG182" s="31"/>
     </row>
-    <row r="183" spans="1:85">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="31"/>
       <c r="B183" s="31"/>
       <c r="C183" s="31"/>
@@ -15511,7 +15384,7 @@
       <c r="CF183" s="31"/>
       <c r="CG183" s="31"/>
     </row>
-    <row r="184" spans="1:85">
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="31"/>
       <c r="B184" s="31"/>
       <c r="C184" s="31"/>
@@ -15598,7 +15471,7 @@
       <c r="CF184" s="31"/>
       <c r="CG184" s="31"/>
     </row>
-    <row r="185" spans="1:85">
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="31"/>
       <c r="B185" s="31"/>
       <c r="C185" s="31"/>
@@ -15685,7 +15558,7 @@
       <c r="CF185" s="31"/>
       <c r="CG185" s="31"/>
     </row>
-    <row r="186" spans="1:85">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="31"/>
       <c r="B186" s="31"/>
       <c r="C186" s="31"/>
@@ -15772,7 +15645,7 @@
       <c r="CF186" s="31"/>
       <c r="CG186" s="31"/>
     </row>
-    <row r="187" spans="1:85">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="31"/>
       <c r="B187" s="31"/>
       <c r="C187" s="31"/>
@@ -15859,7 +15732,7 @@
       <c r="CF187" s="31"/>
       <c r="CG187" s="31"/>
     </row>
-    <row r="188" spans="1:85">
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="31"/>
       <c r="B188" s="31"/>
       <c r="C188" s="31"/>
@@ -15946,7 +15819,7 @@
       <c r="CF188" s="31"/>
       <c r="CG188" s="31"/>
     </row>
-    <row r="189" spans="1:85">
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="31"/>
       <c r="B189" s="31"/>
       <c r="C189" s="31"/>
@@ -16033,7 +15906,7 @@
       <c r="CF189" s="31"/>
       <c r="CG189" s="31"/>
     </row>
-    <row r="190" spans="1:85">
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="31"/>
       <c r="B190" s="31"/>
       <c r="C190" s="31"/>
@@ -16120,7 +15993,7 @@
       <c r="CF190" s="31"/>
       <c r="CG190" s="31"/>
     </row>
-    <row r="191" spans="1:85">
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="31"/>
       <c r="B191" s="31"/>
       <c r="C191" s="31"/>
@@ -16207,7 +16080,7 @@
       <c r="CF191" s="31"/>
       <c r="CG191" s="31"/>
     </row>
-    <row r="192" spans="1:85">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="31"/>
       <c r="B192" s="31"/>
       <c r="C192" s="31"/>
@@ -16294,7 +16167,7 @@
       <c r="CF192" s="31"/>
       <c r="CG192" s="31"/>
     </row>
-    <row r="193" spans="1:85">
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="31"/>
       <c r="B193" s="31"/>
       <c r="C193" s="31"/>
@@ -16381,7 +16254,7 @@
       <c r="CF193" s="31"/>
       <c r="CG193" s="31"/>
     </row>
-    <row r="194" spans="1:85">
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="31"/>
       <c r="B194" s="31"/>
       <c r="C194" s="31"/>
@@ -16468,7 +16341,7 @@
       <c r="CF194" s="31"/>
       <c r="CG194" s="31"/>
     </row>
-    <row r="195" spans="1:85">
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="31"/>
       <c r="B195" s="31"/>
       <c r="C195" s="31"/>
@@ -16555,7 +16428,7 @@
       <c r="CF195" s="31"/>
       <c r="CG195" s="31"/>
     </row>
-    <row r="196" spans="1:85">
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="31"/>
       <c r="B196" s="31"/>
       <c r="C196" s="31"/>
@@ -16642,7 +16515,7 @@
       <c r="CF196" s="31"/>
       <c r="CG196" s="31"/>
     </row>
-    <row r="197" spans="1:85">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="31"/>
       <c r="B197" s="31"/>
       <c r="C197" s="31"/>
@@ -16729,7 +16602,7 @@
       <c r="CF197" s="31"/>
       <c r="CG197" s="31"/>
     </row>
-    <row r="198" spans="1:85">
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="31"/>
       <c r="B198" s="31"/>
       <c r="C198" s="31"/>
@@ -16816,7 +16689,7 @@
       <c r="CF198" s="31"/>
       <c r="CG198" s="31"/>
     </row>
-    <row r="199" spans="1:85">
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="31"/>
       <c r="B199" s="31"/>
       <c r="C199" s="31"/>
@@ -16903,7 +16776,7 @@
       <c r="CF199" s="31"/>
       <c r="CG199" s="31"/>
     </row>
-    <row r="200" spans="1:85">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="31"/>
       <c r="B200" s="31"/>
       <c r="C200" s="31"/>
@@ -16990,7 +16863,7 @@
       <c r="CF200" s="31"/>
       <c r="CG200" s="31"/>
     </row>
-    <row r="201" spans="1:85">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="31"/>
       <c r="B201" s="31"/>
       <c r="C201" s="31"/>
@@ -17077,7 +16950,7 @@
       <c r="CF201" s="31"/>
       <c r="CG201" s="31"/>
     </row>
-    <row r="202" spans="1:85">
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="31"/>
       <c r="B202" s="31"/>
       <c r="C202" s="31"/>
@@ -17164,7 +17037,7 @@
       <c r="CF202" s="31"/>
       <c r="CG202" s="31"/>
     </row>
-    <row r="203" spans="1:85">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="31"/>
       <c r="B203" s="31"/>
       <c r="C203" s="31"/>
@@ -17251,7 +17124,7 @@
       <c r="CF203" s="31"/>
       <c r="CG203" s="31"/>
     </row>
-    <row r="204" spans="1:85">
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="31"/>
       <c r="B204" s="31"/>
       <c r="C204" s="31"/>
@@ -17338,7 +17211,7 @@
       <c r="CF204" s="31"/>
       <c r="CG204" s="31"/>
     </row>
-    <row r="205" spans="1:85">
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="31"/>
       <c r="B205" s="31"/>
       <c r="C205" s="31"/>
@@ -17425,7 +17298,7 @@
       <c r="CF205" s="31"/>
       <c r="CG205" s="31"/>
     </row>
-    <row r="206" spans="1:85">
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="31"/>
       <c r="B206" s="31"/>
       <c r="C206" s="31"/>
@@ -17512,7 +17385,7 @@
       <c r="CF206" s="31"/>
       <c r="CG206" s="31"/>
     </row>
-    <row r="207" spans="1:85">
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="31"/>
       <c r="B207" s="31"/>
       <c r="C207" s="31"/>
@@ -17599,7 +17472,7 @@
       <c r="CF207" s="31"/>
       <c r="CG207" s="31"/>
     </row>
-    <row r="208" spans="1:85">
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="31"/>
       <c r="B208" s="31"/>
       <c r="C208" s="31"/>
@@ -17686,7 +17559,7 @@
       <c r="CF208" s="31"/>
       <c r="CG208" s="31"/>
     </row>
-    <row r="209" spans="1:85">
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="31"/>
       <c r="B209" s="31"/>
       <c r="C209" s="31"/>
@@ -17773,7 +17646,7 @@
       <c r="CF209" s="31"/>
       <c r="CG209" s="31"/>
     </row>
-    <row r="210" spans="1:85">
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="31"/>
       <c r="B210" s="31"/>
       <c r="C210" s="31"/>
@@ -17860,7 +17733,7 @@
       <c r="CF210" s="31"/>
       <c r="CG210" s="31"/>
     </row>
-    <row r="211" spans="1:85">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="31"/>
       <c r="B211" s="31"/>
       <c r="C211" s="31"/>
@@ -17947,7 +17820,7 @@
       <c r="CF211" s="31"/>
       <c r="CG211" s="31"/>
     </row>
-    <row r="212" spans="1:85">
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="31"/>
       <c r="B212" s="31"/>
       <c r="C212" s="31"/>
@@ -18034,7 +17907,7 @@
       <c r="CF212" s="31"/>
       <c r="CG212" s="31"/>
     </row>
-    <row r="213" spans="1:85">
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="31"/>
       <c r="B213" s="31"/>
       <c r="C213" s="31"/>
@@ -18121,7 +17994,7 @@
       <c r="CF213" s="31"/>
       <c r="CG213" s="31"/>
     </row>
-    <row r="214" spans="1:85">
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="31"/>
       <c r="B214" s="31"/>
       <c r="C214" s="31"/>
@@ -18208,7 +18081,7 @@
       <c r="CF214" s="31"/>
       <c r="CG214" s="31"/>
     </row>
-    <row r="215" spans="1:85">
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="31"/>
       <c r="B215" s="31"/>
       <c r="C215" s="31"/>
@@ -18295,7 +18168,7 @@
       <c r="CF215" s="31"/>
       <c r="CG215" s="31"/>
     </row>
-    <row r="216" spans="1:85">
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="31"/>
       <c r="B216" s="31"/>
       <c r="C216" s="31"/>
@@ -18382,7 +18255,7 @@
       <c r="CF216" s="31"/>
       <c r="CG216" s="31"/>
     </row>
-    <row r="217" spans="1:85">
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="31"/>
       <c r="B217" s="31"/>
       <c r="C217" s="31"/>
@@ -18469,7 +18342,7 @@
       <c r="CF217" s="31"/>
       <c r="CG217" s="31"/>
     </row>
-    <row r="218" spans="1:85">
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="31"/>
       <c r="B218" s="31"/>
       <c r="C218" s="31"/>
@@ -18556,7 +18429,7 @@
       <c r="CF218" s="31"/>
       <c r="CG218" s="31"/>
     </row>
-    <row r="219" spans="1:85">
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="31"/>
       <c r="B219" s="31"/>
       <c r="C219" s="31"/>
@@ -18643,7 +18516,7 @@
       <c r="CF219" s="31"/>
       <c r="CG219" s="31"/>
     </row>
-    <row r="220" spans="1:85">
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="31"/>
       <c r="B220" s="31"/>
       <c r="C220" s="31"/>
@@ -18730,7 +18603,7 @@
       <c r="CF220" s="31"/>
       <c r="CG220" s="31"/>
     </row>
-    <row r="221" spans="1:85">
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="31"/>
       <c r="B221" s="31"/>
       <c r="C221" s="31"/>
@@ -18818,6 +18691,12 @@
       <c r="CG221" s="31"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>